--- a/public/backup/jobs.xlsx
+++ b/public/backup/jobs.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O27"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1577,103 +1577,9 @@
         <v>?</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26">
-        <v>71167</v>
-      </c>
-      <c r="B26" t="str">
-        <v>06DS8246BC3200</v>
-      </c>
-      <c r="C26" t="str">
-        <v>24389</v>
-      </c>
-      <c r="D26" t="str">
-        <v>OPEN</v>
-      </c>
-      <c r="E26" t="str">
-        <v>2</v>
-      </c>
-      <c r="F26" t="str">
-        <v>BAD</v>
-      </c>
-      <c r="G26" t="str">
-        <v>N/A</v>
-      </c>
-      <c r="H26" t="str">
-        <v>NO</v>
-      </c>
-      <c r="I26" t="str">
-        <v>this is amazing!</v>
-      </c>
-      <c r="J26" t="str">
-        <v>dev</v>
-      </c>
-      <c r="K26" t="str">
-        <v>8/12/2022</v>
-      </c>
-      <c r="L26" t="b">
-        <v>0</v>
-      </c>
-      <c r="M26" t="str">
-        <v>N/A</v>
-      </c>
-      <c r="N26" t="str">
-        <v>N/A</v>
-      </c>
-      <c r="O26" t="str">
-        <v>YES</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27">
-        <v>71168</v>
-      </c>
-      <c r="B27" t="str">
-        <v>06DSTESTBC3200</v>
-      </c>
-      <c r="C27" t="str">
-        <v>42379</v>
-      </c>
-      <c r="D27" t="str">
-        <v>208</v>
-      </c>
-      <c r="E27" t="str">
-        <v>2</v>
-      </c>
-      <c r="F27" t="str">
-        <v>GOOD</v>
-      </c>
-      <c r="G27" t="str">
-        <v>N/A</v>
-      </c>
-      <c r="H27" t="str">
-        <v>NO</v>
-      </c>
-      <c r="I27" t="str">
-        <v/>
-      </c>
-      <c r="J27" t="str">
-        <v>dev</v>
-      </c>
-      <c r="K27" t="str">
-        <v>8/12/2022</v>
-      </c>
-      <c r="L27" t="b">
-        <v>0</v>
-      </c>
-      <c r="M27" t="str">
-        <v>N/A</v>
-      </c>
-      <c r="N27" t="str">
-        <v>N/A</v>
-      </c>
-      <c r="O27" t="str">
-        <v>YES</v>
-      </c>
-    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:O27"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:O25"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/public/backup/jobs.xlsx
+++ b/public/backup/jobs.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1577,9 +1577,56 @@
         <v>?</v>
       </c>
     </row>
+    <row r="26">
+      <c r="A26">
+        <v>71167</v>
+      </c>
+      <c r="B26" t="str">
+        <v>428390</v>
+      </c>
+      <c r="C26" t="str">
+        <v>49230</v>
+      </c>
+      <c r="D26" t="str">
+        <v>MULTI</v>
+      </c>
+      <c r="E26" t="str">
+        <v>0</v>
+      </c>
+      <c r="F26" t="str">
+        <v>BAD</v>
+      </c>
+      <c r="G26" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="H26" t="str">
+        <v>NO</v>
+      </c>
+      <c r="I26" t="str">
+        <v/>
+      </c>
+      <c r="J26" t="str">
+        <v>dev</v>
+      </c>
+      <c r="K26" t="str">
+        <v>8/23/2022</v>
+      </c>
+      <c r="L26" t="b">
+        <v>1</v>
+      </c>
+      <c r="M26" t="str">
+        <v>dev</v>
+      </c>
+      <c r="N26" t="str">
+        <v>8/23/2022</v>
+      </c>
+      <c r="O26" t="str">
+        <v>YES</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:O25"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:O26"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/public/backup/jobs.xlsx
+++ b/public/backup/jobs.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O26"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1577,56 +1577,9 @@
         <v>?</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26">
-        <v>71167</v>
-      </c>
-      <c r="B26" t="str">
-        <v>428390</v>
-      </c>
-      <c r="C26" t="str">
-        <v>49230</v>
-      </c>
-      <c r="D26" t="str">
-        <v>MULTI</v>
-      </c>
-      <c r="E26" t="str">
-        <v>0</v>
-      </c>
-      <c r="F26" t="str">
-        <v>BAD</v>
-      </c>
-      <c r="G26" t="str">
-        <v>N/A</v>
-      </c>
-      <c r="H26" t="str">
-        <v>NO</v>
-      </c>
-      <c r="I26" t="str">
-        <v/>
-      </c>
-      <c r="J26" t="str">
-        <v>dev</v>
-      </c>
-      <c r="K26" t="str">
-        <v>8/23/2022</v>
-      </c>
-      <c r="L26" t="b">
-        <v>1</v>
-      </c>
-      <c r="M26" t="str">
-        <v>dev</v>
-      </c>
-      <c r="N26" t="str">
-        <v>8/23/2022</v>
-      </c>
-      <c r="O26" t="str">
-        <v>YES</v>
-      </c>
-    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:O26"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:O25"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/public/backup/jobs.xlsx
+++ b/public/backup/jobs.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1577,9 +1577,103 @@
         <v>?</v>
       </c>
     </row>
+    <row r="26">
+      <c r="A26">
+        <v>71278</v>
+      </c>
+      <c r="B26" t="str">
+        <v>06DF3136AA3600</v>
+      </c>
+      <c r="C26" t="str">
+        <v>3600J03031</v>
+      </c>
+      <c r="D26" t="str">
+        <v>460</v>
+      </c>
+      <c r="E26" t="str">
+        <v>?</v>
+      </c>
+      <c r="F26" t="str">
+        <v>GOOD</v>
+      </c>
+      <c r="G26" t="str">
+        <v>NA</v>
+      </c>
+      <c r="H26" t="str">
+        <v>NO</v>
+      </c>
+      <c r="I26" t="str">
+        <v/>
+      </c>
+      <c r="J26" t="str">
+        <v>ravi</v>
+      </c>
+      <c r="K26" t="str">
+        <v>8/31/2022</v>
+      </c>
+      <c r="L26" t="b">
+        <v>0</v>
+      </c>
+      <c r="M26" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="N26" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="O26" t="str">
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>71279</v>
+      </c>
+      <c r="B27" t="str">
+        <v>JAS0N</v>
+      </c>
+      <c r="C27" t="str">
+        <v>DRFDWR</v>
+      </c>
+      <c r="D27" t="str">
+        <v>460</v>
+      </c>
+      <c r="E27" t="str">
+        <v>2</v>
+      </c>
+      <c r="F27" t="str">
+        <v>GOOD</v>
+      </c>
+      <c r="G27" t="str">
+        <v>N/A23345</v>
+      </c>
+      <c r="H27" t="str">
+        <v>NO</v>
+      </c>
+      <c r="I27" t="str">
+        <v>Jgyjgygujguj</v>
+      </c>
+      <c r="J27" t="str">
+        <v>west</v>
+      </c>
+      <c r="K27" t="str">
+        <v>8/31/2022</v>
+      </c>
+      <c r="L27" t="b">
+        <v>0</v>
+      </c>
+      <c r="M27" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="N27" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="O27" t="str">
+        <v>?</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:O25"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:O27"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/public/backup/jobs.xlsx
+++ b/public/backup/jobs.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O27"/>
+  <dimension ref="A1:O33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1629,31 +1629,31 @@
         <v>71279</v>
       </c>
       <c r="B27" t="str">
-        <v>JAS0N</v>
+        <v>06D3136CC3600</v>
       </c>
       <c r="C27" t="str">
-        <v>DRFDWR</v>
+        <v>NO TAG</v>
       </c>
       <c r="D27" t="str">
         <v>460</v>
       </c>
       <c r="E27" t="str">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F27" t="str">
         <v>GOOD</v>
       </c>
       <c r="G27" t="str">
-        <v>N/A23345</v>
+        <v>82523</v>
       </c>
       <c r="H27" t="str">
         <v>NO</v>
       </c>
       <c r="I27" t="str">
-        <v>Jgyjgygujguj</v>
+        <v/>
       </c>
       <c r="J27" t="str">
-        <v>west</v>
+        <v>ravi</v>
       </c>
       <c r="K27" t="str">
         <v>8/31/2022</v>
@@ -1668,12 +1668,294 @@
         <v>N/A</v>
       </c>
       <c r="O27" t="str">
-        <v>?</v>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>71280</v>
+      </c>
+      <c r="B28" t="str">
+        <v>O6E7265 310</v>
+      </c>
+      <c r="C28" t="str">
+        <v>6EABBC2L2H30</v>
+      </c>
+      <c r="D28" t="str">
+        <v>MULTI</v>
+      </c>
+      <c r="E28" t="str">
+        <v>?</v>
+      </c>
+      <c r="F28" t="str">
+        <v>GOOD</v>
+      </c>
+      <c r="G28" t="str">
+        <v>NA</v>
+      </c>
+      <c r="H28" t="str">
+        <v>NO</v>
+      </c>
+      <c r="I28" t="str">
+        <v/>
+      </c>
+      <c r="J28" t="str">
+        <v>ravi</v>
+      </c>
+      <c r="K28" t="str">
+        <v>8/31/2022</v>
+      </c>
+      <c r="L28" t="b">
+        <v>0</v>
+      </c>
+      <c r="M28" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="N28" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="O28" t="str">
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>71281</v>
+      </c>
+      <c r="B29" t="str">
+        <v>NRA0400TFD</v>
+      </c>
+      <c r="C29" t="str">
+        <v>CT97E15052</v>
+      </c>
+      <c r="D29" t="str">
+        <v>460</v>
+      </c>
+      <c r="E29" t="str">
+        <v>0</v>
+      </c>
+      <c r="F29" t="str">
+        <v>?</v>
+      </c>
+      <c r="G29" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="H29" t="str">
+        <v>NO</v>
+      </c>
+      <c r="I29" t="str">
+        <v/>
+      </c>
+      <c r="J29" t="str">
+        <v>ravi</v>
+      </c>
+      <c r="K29" t="str">
+        <v>9/2/2022</v>
+      </c>
+      <c r="L29" t="b">
+        <v>0</v>
+      </c>
+      <c r="M29" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="N29" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="O29" t="str">
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>71282</v>
+      </c>
+      <c r="B30" t="str">
+        <v>NRB 0400TFD</v>
+      </c>
+      <c r="C30" t="str">
+        <v>CT0400TFD</v>
+      </c>
+      <c r="D30" t="str">
+        <v>460</v>
+      </c>
+      <c r="E30" t="str">
+        <v>0</v>
+      </c>
+      <c r="F30" t="str">
+        <v>BAD</v>
+      </c>
+      <c r="G30" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="H30" t="str">
+        <v>NO</v>
+      </c>
+      <c r="I30" t="str">
+        <v/>
+      </c>
+      <c r="J30" t="str">
+        <v>ravi</v>
+      </c>
+      <c r="K30" t="str">
+        <v>9/2/2022</v>
+      </c>
+      <c r="L30" t="b">
+        <v>0</v>
+      </c>
+      <c r="M30" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="N30" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="O30" t="str">
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>71283</v>
+      </c>
+      <c r="B31" t="str">
+        <v>3DP3R12METFD</v>
+      </c>
+      <c r="C31" t="str">
+        <v>14162424R</v>
+      </c>
+      <c r="D31" t="str">
+        <v>460</v>
+      </c>
+      <c r="E31" t="str">
+        <v>1</v>
+      </c>
+      <c r="F31" t="str">
+        <v>GOOD</v>
+      </c>
+      <c r="G31" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="H31" t="str">
+        <v>NO</v>
+      </c>
+      <c r="I31" t="str">
+        <v/>
+      </c>
+      <c r="J31" t="str">
+        <v>ravi</v>
+      </c>
+      <c r="K31" t="str">
+        <v>9/2/2022</v>
+      </c>
+      <c r="L31" t="b">
+        <v>0</v>
+      </c>
+      <c r="M31" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="N31" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="O31" t="str">
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>71284</v>
+      </c>
+      <c r="B32" t="str">
+        <v>4RL2150ATSK</v>
+      </c>
+      <c r="C32" t="str">
+        <v>21F60072R</v>
+      </c>
+      <c r="D32" t="str">
+        <v>MULTI</v>
+      </c>
+      <c r="E32" t="str">
+        <v>0</v>
+      </c>
+      <c r="F32" t="str">
+        <v>GOOD</v>
+      </c>
+      <c r="G32" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="H32" t="str">
+        <v>NO</v>
+      </c>
+      <c r="I32" t="str">
+        <v/>
+      </c>
+      <c r="J32" t="str">
+        <v>ravi</v>
+      </c>
+      <c r="K32" t="str">
+        <v>9/2/2022</v>
+      </c>
+      <c r="L32" t="b">
+        <v>0</v>
+      </c>
+      <c r="M32" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="N32" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="O32" t="str">
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>71285</v>
+      </c>
+      <c r="B33" t="str">
+        <v>3DA3A060ETFC</v>
+      </c>
+      <c r="C33" t="str">
+        <v>ET06G02970R</v>
+      </c>
+      <c r="D33" t="str">
+        <v>208</v>
+      </c>
+      <c r="E33" t="str">
+        <v>0</v>
+      </c>
+      <c r="F33" t="str">
+        <v>BAD</v>
+      </c>
+      <c r="G33" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="H33" t="str">
+        <v>NO</v>
+      </c>
+      <c r="I33" t="str">
+        <v/>
+      </c>
+      <c r="J33" t="str">
+        <v>ravi</v>
+      </c>
+      <c r="K33" t="str">
+        <v>9/2/2022</v>
+      </c>
+      <c r="L33" t="b">
+        <v>0</v>
+      </c>
+      <c r="M33" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="N33" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="O33" t="str">
+        <v>NO</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:O27"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:O33"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/public/backup/jobs.xlsx
+++ b/public/backup/jobs.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O33"/>
+  <dimension ref="A1:O52"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1953,9 +1953,902 @@
         <v>NO</v>
       </c>
     </row>
+    <row r="34">
+      <c r="A34">
+        <v>71286</v>
+      </c>
+      <c r="B34" t="str">
+        <v>06EY665E 103</v>
+      </c>
+      <c r="C34" t="str">
+        <v>0508UE0410</v>
+      </c>
+      <c r="D34" t="str">
+        <v>MULTI</v>
+      </c>
+      <c r="E34" t="str">
+        <v>?</v>
+      </c>
+      <c r="F34" t="str">
+        <v>GOOD</v>
+      </c>
+      <c r="G34" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="H34" t="str">
+        <v>NO</v>
+      </c>
+      <c r="I34" t="str">
+        <v/>
+      </c>
+      <c r="J34" t="str">
+        <v>ravi</v>
+      </c>
+      <c r="K34" t="str">
+        <v>9/6/2022</v>
+      </c>
+      <c r="L34" t="b">
+        <v>0</v>
+      </c>
+      <c r="M34" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="N34" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="O34" t="str">
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>71287</v>
+      </c>
+      <c r="B35" t="str">
+        <v>06E26536A</v>
+      </c>
+      <c r="C35" t="str">
+        <v>65334NA2</v>
+      </c>
+      <c r="D35" t="str">
+        <v>MULTI</v>
+      </c>
+      <c r="E35" t="str">
+        <v>?</v>
+      </c>
+      <c r="F35" t="str">
+        <v>GOOD</v>
+      </c>
+      <c r="G35" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="H35" t="str">
+        <v>NO</v>
+      </c>
+      <c r="I35" t="str">
+        <v/>
+      </c>
+      <c r="J35" t="str">
+        <v>ravi</v>
+      </c>
+      <c r="K35" t="str">
+        <v>9/6/2022</v>
+      </c>
+      <c r="L35" t="b">
+        <v>0</v>
+      </c>
+      <c r="M35" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="N35" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="O35" t="str">
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>71288</v>
+      </c>
+      <c r="B36" t="str">
+        <v>06EY77534A</v>
+      </c>
+      <c r="C36" t="str">
+        <v>67959NE2</v>
+      </c>
+      <c r="D36" t="str">
+        <v>MULTI</v>
+      </c>
+      <c r="E36" t="str">
+        <v>?</v>
+      </c>
+      <c r="F36" t="str">
+        <v>GOOD</v>
+      </c>
+      <c r="G36" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="H36" t="str">
+        <v>NO</v>
+      </c>
+      <c r="I36" t="str">
+        <v/>
+      </c>
+      <c r="J36" t="str">
+        <v>ravi</v>
+      </c>
+      <c r="K36" t="str">
+        <v>9/6/2022</v>
+      </c>
+      <c r="L36" t="b">
+        <v>0</v>
+      </c>
+      <c r="M36" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="N36" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="O36" t="str">
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>71289</v>
+      </c>
+      <c r="B37" t="str">
+        <v>06ET265360</v>
+      </c>
+      <c r="C37" t="str">
+        <v>63522NA0</v>
+      </c>
+      <c r="D37" t="str">
+        <v>MULTI</v>
+      </c>
+      <c r="E37" t="str">
+        <v>?</v>
+      </c>
+      <c r="F37" t="str">
+        <v>GOOD</v>
+      </c>
+      <c r="G37" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="H37" t="str">
+        <v>NO</v>
+      </c>
+      <c r="I37" t="str">
+        <v/>
+      </c>
+      <c r="J37" t="str">
+        <v>ravi</v>
+      </c>
+      <c r="K37" t="str">
+        <v>9/6/2022</v>
+      </c>
+      <c r="L37" t="b">
+        <v>0</v>
+      </c>
+      <c r="M37" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="N37" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="O37" t="str">
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>71290</v>
+      </c>
+      <c r="B38" t="str">
+        <v>06DX3376BC1200</v>
+      </c>
+      <c r="C38" t="str">
+        <v>66295NAE2</v>
+      </c>
+      <c r="D38" t="str">
+        <v>208</v>
+      </c>
+      <c r="E38" t="str">
+        <v>?</v>
+      </c>
+      <c r="F38" t="str">
+        <v>GOOD</v>
+      </c>
+      <c r="G38" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="H38" t="str">
+        <v>NO</v>
+      </c>
+      <c r="I38" t="str">
+        <v/>
+      </c>
+      <c r="J38" t="str">
+        <v>ravi</v>
+      </c>
+      <c r="K38" t="str">
+        <v>9/6/2022</v>
+      </c>
+      <c r="L38" t="b">
+        <v>0</v>
+      </c>
+      <c r="M38" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="N38" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="O38" t="str">
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>71291</v>
+      </c>
+      <c r="B39" t="str">
+        <v>DXS45</v>
+      </c>
+      <c r="C39" t="str">
+        <v>XXXXXXX</v>
+      </c>
+      <c r="D39" t="str">
+        <v>460</v>
+      </c>
+      <c r="E39" t="str">
+        <v>0</v>
+      </c>
+      <c r="F39" t="str">
+        <v>?</v>
+      </c>
+      <c r="G39" t="str">
+        <v>81605</v>
+      </c>
+      <c r="H39" t="str">
+        <v>NO</v>
+      </c>
+      <c r="I39" t="str">
+        <v>Replaced Input - Brandon</v>
+      </c>
+      <c r="J39" t="str">
+        <v>ravi</v>
+      </c>
+      <c r="K39" t="str">
+        <v>9/7/2022</v>
+      </c>
+      <c r="L39" t="b">
+        <v>0</v>
+      </c>
+      <c r="M39" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="N39" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="O39" t="str">
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>71292</v>
+      </c>
+      <c r="B40" t="str">
+        <v>06E7299610</v>
+      </c>
+      <c r="C40" t="str">
+        <v>0305U00659</v>
+      </c>
+      <c r="D40" t="str">
+        <v>460</v>
+      </c>
+      <c r="E40" t="str">
+        <v>?</v>
+      </c>
+      <c r="F40" t="str">
+        <v>?</v>
+      </c>
+      <c r="G40" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="H40" t="str">
+        <v>NO</v>
+      </c>
+      <c r="I40" t="str">
+        <v/>
+      </c>
+      <c r="J40" t="str">
+        <v>ravi</v>
+      </c>
+      <c r="K40" t="str">
+        <v>9/6/2022</v>
+      </c>
+      <c r="L40" t="b">
+        <v>0</v>
+      </c>
+      <c r="M40" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="N40" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="O40" t="str">
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>71293</v>
+      </c>
+      <c r="B41" t="str">
+        <v>06ET299660</v>
+      </c>
+      <c r="C41" t="str">
+        <v>69808ND2</v>
+      </c>
+      <c r="D41" t="str">
+        <v>460</v>
+      </c>
+      <c r="E41" t="str">
+        <v>?</v>
+      </c>
+      <c r="F41" t="str">
+        <v>GOOD</v>
+      </c>
+      <c r="G41" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="H41" t="str">
+        <v>NO</v>
+      </c>
+      <c r="I41" t="str">
+        <v>Stator only</v>
+      </c>
+      <c r="J41" t="str">
+        <v>ravi</v>
+      </c>
+      <c r="K41" t="str">
+        <v>9/6/2022</v>
+      </c>
+      <c r="L41" t="b">
+        <v>0</v>
+      </c>
+      <c r="M41" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="N41" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="O41" t="str">
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>71294</v>
+      </c>
+      <c r="B42" t="str">
+        <v>6DL3S2700TSK</v>
+      </c>
+      <c r="C42" t="str">
+        <v>NA</v>
+      </c>
+      <c r="D42" t="str">
+        <v>MULTI</v>
+      </c>
+      <c r="E42" t="str">
+        <v>0</v>
+      </c>
+      <c r="F42" t="str">
+        <v>GOOD</v>
+      </c>
+      <c r="G42" t="str">
+        <v>N/A82835</v>
+      </c>
+      <c r="H42" t="str">
+        <v>NO</v>
+      </c>
+      <c r="I42" t="str">
+        <v/>
+      </c>
+      <c r="J42" t="str">
+        <v>ravi</v>
+      </c>
+      <c r="K42" t="str">
+        <v>9/7/2022</v>
+      </c>
+      <c r="L42" t="b">
+        <v>0</v>
+      </c>
+      <c r="M42" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="N42" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="O42" t="str">
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
+        <v>71295</v>
+      </c>
+      <c r="B43" t="str">
+        <v>ONE 299 610</v>
+      </c>
+      <c r="C43" t="str">
+        <v>408 5J01412</v>
+      </c>
+      <c r="D43" t="str">
+        <v>460</v>
+      </c>
+      <c r="E43" t="str">
+        <v>0</v>
+      </c>
+      <c r="F43" t="str">
+        <v>GOOD</v>
+      </c>
+      <c r="G43" t="str">
+        <v>82585</v>
+      </c>
+      <c r="H43" t="str">
+        <v>NO</v>
+      </c>
+      <c r="I43" t="str">
+        <v>Stator only</v>
+      </c>
+      <c r="J43" t="str">
+        <v>ravi</v>
+      </c>
+      <c r="K43" t="str">
+        <v>9/7/2022</v>
+      </c>
+      <c r="L43" t="b">
+        <v>0</v>
+      </c>
+      <c r="M43" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="N43" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="O43" t="str">
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <v>71296</v>
+      </c>
+      <c r="B44" t="str">
+        <v>O6DG5373DC0600</v>
+      </c>
+      <c r="C44" t="str">
+        <v>1008U00036</v>
+      </c>
+      <c r="D44" t="str">
+        <v>460</v>
+      </c>
+      <c r="E44" t="str">
+        <v>2</v>
+      </c>
+      <c r="F44" t="str">
+        <v>?</v>
+      </c>
+      <c r="G44" t="str">
+        <v>N/A82920</v>
+      </c>
+      <c r="H44" t="str">
+        <v>NO</v>
+      </c>
+      <c r="I44" t="str">
+        <v>E unl</v>
+      </c>
+      <c r="J44" t="str">
+        <v>ravi</v>
+      </c>
+      <c r="K44" t="str">
+        <v>9/7/2022</v>
+      </c>
+      <c r="L44" t="b">
+        <v>0</v>
+      </c>
+      <c r="M44" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="N44" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="O44" t="str">
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
+        <v>71297</v>
+      </c>
+      <c r="B45" t="str">
+        <v>06DG5376DC0601</v>
+      </c>
+      <c r="C45" t="str">
+        <v>250465 15485</v>
+      </c>
+      <c r="D45" t="str">
+        <v>460</v>
+      </c>
+      <c r="E45" t="str">
+        <v>2</v>
+      </c>
+      <c r="F45" t="str">
+        <v>?</v>
+      </c>
+      <c r="G45" t="str">
+        <v>87942</v>
+      </c>
+      <c r="H45" t="str">
+        <v>NO</v>
+      </c>
+      <c r="I45" t="str">
+        <v>2  e  unl</v>
+      </c>
+      <c r="J45" t="str">
+        <v>ravi</v>
+      </c>
+      <c r="K45" t="str">
+        <v>9/7/2022</v>
+      </c>
+      <c r="L45" t="b">
+        <v>0</v>
+      </c>
+      <c r="M45" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="N45" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="O45" t="str">
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
+        <v>71298</v>
+      </c>
+      <c r="B46" t="str">
+        <v>06DG5376DC0601</v>
+      </c>
+      <c r="C46" t="str">
+        <v>300019 17066</v>
+      </c>
+      <c r="D46" t="str">
+        <v>460</v>
+      </c>
+      <c r="E46" t="str">
+        <v>2</v>
+      </c>
+      <c r="F46" t="str">
+        <v>?</v>
+      </c>
+      <c r="G46" t="str">
+        <v>87941</v>
+      </c>
+      <c r="H46" t="str">
+        <v>NO</v>
+      </c>
+      <c r="I46" t="str">
+        <v>2 e unl</v>
+      </c>
+      <c r="J46" t="str">
+        <v>ravi</v>
+      </c>
+      <c r="K46" t="str">
+        <v>9/7/2022</v>
+      </c>
+      <c r="L46" t="b">
+        <v>0</v>
+      </c>
+      <c r="M46" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="N46" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="O46" t="str">
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47">
+        <v>71299</v>
+      </c>
+      <c r="B47" t="str">
+        <v>O6DG5373DC0600</v>
+      </c>
+      <c r="C47" t="str">
+        <v>2607U03046</v>
+      </c>
+      <c r="D47" t="str">
+        <v>460</v>
+      </c>
+      <c r="E47" t="str">
+        <v>2</v>
+      </c>
+      <c r="F47" t="str">
+        <v>?</v>
+      </c>
+      <c r="G47" t="str">
+        <v>82943</v>
+      </c>
+      <c r="H47" t="str">
+        <v>NO</v>
+      </c>
+      <c r="I47" t="str">
+        <v>2 e unl</v>
+      </c>
+      <c r="J47" t="str">
+        <v>ravi</v>
+      </c>
+      <c r="K47" t="str">
+        <v>9/7/2022</v>
+      </c>
+      <c r="L47" t="b">
+        <v>0</v>
+      </c>
+      <c r="M47" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="N47" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="O47" t="str">
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48">
+        <v>71300</v>
+      </c>
+      <c r="B48" t="str">
+        <v>06DG53760601</v>
+      </c>
+      <c r="C48" t="str">
+        <v>NA</v>
+      </c>
+      <c r="D48" t="str">
+        <v>460</v>
+      </c>
+      <c r="E48" t="str">
+        <v>2</v>
+      </c>
+      <c r="F48" t="str">
+        <v>?</v>
+      </c>
+      <c r="G48" t="str">
+        <v>82944</v>
+      </c>
+      <c r="H48" t="str">
+        <v>NO</v>
+      </c>
+      <c r="I48" t="str">
+        <v>2 e unl</v>
+      </c>
+      <c r="J48" t="str">
+        <v>ravi</v>
+      </c>
+      <c r="K48" t="str">
+        <v>9/7/2022</v>
+      </c>
+      <c r="L48" t="b">
+        <v>0</v>
+      </c>
+      <c r="M48" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="N48" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="O48" t="str">
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
+        <v>71301</v>
+      </c>
+      <c r="B49" t="str">
+        <v>06DG5376DC0601</v>
+      </c>
+      <c r="C49" t="str">
+        <v>4619UD4187</v>
+      </c>
+      <c r="D49" t="str">
+        <v>460</v>
+      </c>
+      <c r="E49" t="str">
+        <v>2</v>
+      </c>
+      <c r="F49" t="str">
+        <v>?</v>
+      </c>
+      <c r="G49" t="str">
+        <v>82919</v>
+      </c>
+      <c r="H49" t="str">
+        <v>NO</v>
+      </c>
+      <c r="I49" t="str">
+        <v>2 e unl</v>
+      </c>
+      <c r="J49" t="str">
+        <v>ravi</v>
+      </c>
+      <c r="K49" t="str">
+        <v>9/7/2022</v>
+      </c>
+      <c r="L49" t="b">
+        <v>0</v>
+      </c>
+      <c r="M49" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="N49" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="O49" t="str">
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
+        <v>71302</v>
+      </c>
+      <c r="B50" t="str">
+        <v>O6EY675E 103</v>
+      </c>
+      <c r="C50" t="str">
+        <v>2605UE4569</v>
+      </c>
+      <c r="D50" t="str">
+        <v>MULTI</v>
+      </c>
+      <c r="E50" t="str">
+        <v>0</v>
+      </c>
+      <c r="F50" t="str">
+        <v>BAD</v>
+      </c>
+      <c r="G50" t="str">
+        <v>82251</v>
+      </c>
+      <c r="H50" t="str">
+        <v>NO</v>
+      </c>
+      <c r="I50" t="str">
+        <v/>
+      </c>
+      <c r="J50" t="str">
+        <v>ravi</v>
+      </c>
+      <c r="K50" t="str">
+        <v>9/7/2022</v>
+      </c>
+      <c r="L50" t="b">
+        <v>0</v>
+      </c>
+      <c r="M50" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="N50" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="O50" t="str">
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
+        <v>71303</v>
+      </c>
+      <c r="B51" t="str">
+        <v>06CC675E2OO</v>
+      </c>
+      <c r="C51" t="str">
+        <v>1701J01641</v>
+      </c>
+      <c r="D51" t="str">
+        <v>MULTI</v>
+      </c>
+      <c r="E51" t="str">
+        <v>0</v>
+      </c>
+      <c r="F51" t="str">
+        <v>GOOD</v>
+      </c>
+      <c r="G51" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="H51" t="str">
+        <v>NO</v>
+      </c>
+      <c r="I51" t="str">
+        <v/>
+      </c>
+      <c r="J51" t="str">
+        <v>ravi</v>
+      </c>
+      <c r="K51" t="str">
+        <v>9/7/2022</v>
+      </c>
+      <c r="L51" t="b">
+        <v>0</v>
+      </c>
+      <c r="M51" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="N51" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="O51" t="str">
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
+        <v>71304</v>
+      </c>
+      <c r="B52" t="str">
+        <v>6DL32700TSK</v>
+      </c>
+      <c r="C52" t="str">
+        <v>NA</v>
+      </c>
+      <c r="D52" t="str">
+        <v>MULTI</v>
+      </c>
+      <c r="E52" t="str">
+        <v>0</v>
+      </c>
+      <c r="F52" t="str">
+        <v>GOOD</v>
+      </c>
+      <c r="G52" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="H52" t="str">
+        <v>NO</v>
+      </c>
+      <c r="I52" t="str">
+        <v/>
+      </c>
+      <c r="J52" t="str">
+        <v>ravi</v>
+      </c>
+      <c r="K52" t="str">
+        <v>9/7/2022</v>
+      </c>
+      <c r="L52" t="b">
+        <v>0</v>
+      </c>
+      <c r="M52" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="N52" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="O52" t="str">
+        <v>NO</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:O33"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:O52"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/public/backup/jobs.xlsx
+++ b/public/backup/jobs.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O52"/>
+  <dimension ref="A1:O54"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2846,9 +2846,103 @@
         <v>NO</v>
       </c>
     </row>
+    <row r="53">
+      <c r="A53">
+        <v>71305</v>
+      </c>
+      <c r="B53" t="str">
+        <v>O6CC675E200</v>
+      </c>
+      <c r="C53" t="str">
+        <v>NA</v>
+      </c>
+      <c r="D53" t="str">
+        <v>MULTI</v>
+      </c>
+      <c r="E53" t="str">
+        <v>0</v>
+      </c>
+      <c r="F53" t="str">
+        <v>GOOD</v>
+      </c>
+      <c r="G53" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="H53" t="str">
+        <v>NO</v>
+      </c>
+      <c r="I53" t="str">
+        <v/>
+      </c>
+      <c r="J53" t="str">
+        <v>ravi</v>
+      </c>
+      <c r="K53" t="str">
+        <v>9/8/2022</v>
+      </c>
+      <c r="L53" t="b">
+        <v>0</v>
+      </c>
+      <c r="M53" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="N53" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="O53" t="str">
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>71306</v>
+      </c>
+      <c r="B54" t="str">
+        <v>6M11 40X AWM D P</v>
+      </c>
+      <c r="C54" t="str">
+        <v>21B 43024 M</v>
+      </c>
+      <c r="D54" t="str">
+        <v>380 420 YY</v>
+      </c>
+      <c r="E54" t="str">
+        <v>0</v>
+      </c>
+      <c r="F54" t="str">
+        <v>GOOD</v>
+      </c>
+      <c r="G54" t="str">
+        <v>82916</v>
+      </c>
+      <c r="H54" t="str">
+        <v>NO</v>
+      </c>
+      <c r="I54" t="str">
+        <v/>
+      </c>
+      <c r="J54" t="str">
+        <v>ravi</v>
+      </c>
+      <c r="K54" t="str">
+        <v>9/8/2022</v>
+      </c>
+      <c r="L54" t="b">
+        <v>0</v>
+      </c>
+      <c r="M54" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="N54" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="O54" t="str">
+        <v>NO</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:O52"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:O54"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/public/backup/jobs.xlsx
+++ b/public/backup/jobs.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O54"/>
+  <dimension ref="A1:O57"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2940,9 +2940,150 @@
         <v>NO</v>
       </c>
     </row>
+    <row r="55">
+      <c r="A55">
+        <v>71307</v>
+      </c>
+      <c r="B55" t="str">
+        <v>4MK1 35X AWM D P</v>
+      </c>
+      <c r="C55" t="str">
+        <v>21D 57594 M</v>
+      </c>
+      <c r="D55" t="str">
+        <v>380 420YY</v>
+      </c>
+      <c r="E55" t="str">
+        <v>0</v>
+      </c>
+      <c r="F55" t="str">
+        <v>?</v>
+      </c>
+      <c r="G55" t="str">
+        <v>82915</v>
+      </c>
+      <c r="H55" t="str">
+        <v>NO</v>
+      </c>
+      <c r="I55" t="str">
+        <v/>
+      </c>
+      <c r="J55" t="str">
+        <v>ravi</v>
+      </c>
+      <c r="K55" t="str">
+        <v>9/8/2022</v>
+      </c>
+      <c r="L55" t="b">
+        <v>0</v>
+      </c>
+      <c r="M55" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="N55" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="O55" t="str">
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>71308</v>
+      </c>
+      <c r="B56" t="str">
+        <v>O6DE5379DC1900</v>
+      </c>
+      <c r="C56" t="str">
+        <v>3609UD8512</v>
+      </c>
+      <c r="D56" t="str">
+        <v>MULTI</v>
+      </c>
+      <c r="E56" t="str">
+        <v>2</v>
+      </c>
+      <c r="F56" t="str">
+        <v>GOOD</v>
+      </c>
+      <c r="G56" t="str">
+        <v>82939</v>
+      </c>
+      <c r="H56" t="str">
+        <v>NO</v>
+      </c>
+      <c r="I56" t="str">
+        <v/>
+      </c>
+      <c r="J56" t="str">
+        <v>ravi</v>
+      </c>
+      <c r="K56" t="str">
+        <v>9/8/2022</v>
+      </c>
+      <c r="L56" t="b">
+        <v>0</v>
+      </c>
+      <c r="M56" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="N56" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="O56" t="str">
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>71309</v>
+      </c>
+      <c r="B57" t="str">
+        <v>O6DG5373DC0600</v>
+      </c>
+      <c r="C57" t="str">
+        <v>4307U00575</v>
+      </c>
+      <c r="D57" t="str">
+        <v>460</v>
+      </c>
+      <c r="E57" t="str">
+        <v>2</v>
+      </c>
+      <c r="F57" t="str">
+        <v>?</v>
+      </c>
+      <c r="G57" t="str">
+        <v>82940</v>
+      </c>
+      <c r="H57" t="str">
+        <v>NO</v>
+      </c>
+      <c r="I57" t="str">
+        <v>2 s HD e unl</v>
+      </c>
+      <c r="J57" t="str">
+        <v>ravi</v>
+      </c>
+      <c r="K57" t="str">
+        <v>9/8/2022</v>
+      </c>
+      <c r="L57" t="b">
+        <v>0</v>
+      </c>
+      <c r="M57" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="N57" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="O57" t="str">
+        <v>NO</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:O54"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:O57"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/public/backup/jobs.xlsx
+++ b/public/backup/jobs.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O57"/>
+  <dimension ref="A1:O58"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3081,9 +3081,56 @@
         <v>NO</v>
       </c>
     </row>
+    <row r="58">
+      <c r="A58">
+        <v>71310</v>
+      </c>
+      <c r="B58" t="str">
+        <v>6002SC H</v>
+      </c>
+      <c r="C58" t="str">
+        <v>0282295</v>
+      </c>
+      <c r="D58" t="str">
+        <v>460</v>
+      </c>
+      <c r="E58" t="str">
+        <v>?</v>
+      </c>
+      <c r="F58" t="str">
+        <v>?</v>
+      </c>
+      <c r="G58" t="str">
+        <v>82480</v>
+      </c>
+      <c r="H58" t="str">
+        <v>NO</v>
+      </c>
+      <c r="I58" t="str">
+        <v/>
+      </c>
+      <c r="J58" t="str">
+        <v>romel</v>
+      </c>
+      <c r="K58" t="str">
+        <v>9/9/2022</v>
+      </c>
+      <c r="L58" t="b">
+        <v>0</v>
+      </c>
+      <c r="M58" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="N58" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="O58" t="str">
+        <v>?</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:O57"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:O58"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/public/backup/jobs.xlsx
+++ b/public/backup/jobs.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O58"/>
+  <dimension ref="A1:O60"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3128,9 +3128,103 @@
         <v>?</v>
       </c>
     </row>
+    <row r="59">
+      <c r="A59">
+        <v>71311</v>
+      </c>
+      <c r="B59" t="str">
+        <v>O6E3575 661</v>
+      </c>
+      <c r="C59" t="str">
+        <v>0920UE9854</v>
+      </c>
+      <c r="D59" t="str">
+        <v>460</v>
+      </c>
+      <c r="E59" t="str">
+        <v>2</v>
+      </c>
+      <c r="F59" t="str">
+        <v>GOOD</v>
+      </c>
+      <c r="G59" t="str">
+        <v>82921</v>
+      </c>
+      <c r="H59" t="str">
+        <v>NO</v>
+      </c>
+      <c r="I59" t="str">
+        <v>2 e unl</v>
+      </c>
+      <c r="J59" t="str">
+        <v>ravi</v>
+      </c>
+      <c r="K59" t="str">
+        <v>9/9/2022</v>
+      </c>
+      <c r="L59" t="b">
+        <v>0</v>
+      </c>
+      <c r="M59" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="N59" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="O59" t="str">
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>71312</v>
+      </c>
+      <c r="B60" t="str">
+        <v>O6E3575661</v>
+      </c>
+      <c r="C60" t="str">
+        <v>5015UE6053</v>
+      </c>
+      <c r="D60" t="str">
+        <v>460</v>
+      </c>
+      <c r="E60" t="str">
+        <v>2</v>
+      </c>
+      <c r="F60" t="str">
+        <v>GOOD</v>
+      </c>
+      <c r="G60" t="str">
+        <v>82923</v>
+      </c>
+      <c r="H60" t="str">
+        <v>NO</v>
+      </c>
+      <c r="I60" t="str">
+        <v>2 e unl</v>
+      </c>
+      <c r="J60" t="str">
+        <v>ravi</v>
+      </c>
+      <c r="K60" t="str">
+        <v>9/9/2022</v>
+      </c>
+      <c r="L60" t="b">
+        <v>0</v>
+      </c>
+      <c r="M60" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="N60" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="O60" t="str">
+        <v>NO</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:O58"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:O60"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/public/backup/jobs.xlsx
+++ b/public/backup/jobs.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O60"/>
+  <dimension ref="A1:O61"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3222,9 +3222,56 @@
         <v>NO</v>
       </c>
     </row>
+    <row r="61">
+      <c r="A61">
+        <v>71313</v>
+      </c>
+      <c r="B61" t="str">
+        <v>6002SC-H</v>
+      </c>
+      <c r="C61" t="str">
+        <v>0282307</v>
+      </c>
+      <c r="D61" t="str">
+        <v>460</v>
+      </c>
+      <c r="E61" t="str">
+        <v>?</v>
+      </c>
+      <c r="F61" t="str">
+        <v>?</v>
+      </c>
+      <c r="G61" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="H61" t="str">
+        <v>NO</v>
+      </c>
+      <c r="I61" t="str">
+        <v/>
+      </c>
+      <c r="J61" t="str">
+        <v>wes</v>
+      </c>
+      <c r="K61" t="str">
+        <v>9/9/2022</v>
+      </c>
+      <c r="L61" t="b">
+        <v>0</v>
+      </c>
+      <c r="M61" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="N61" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="O61" t="str">
+        <v>NO</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:O60"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:O61"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/public/backup/jobs.xlsx
+++ b/public/backup/jobs.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O61"/>
+  <dimension ref="A1:O62"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3269,9 +3269,56 @@
         <v>NO</v>
       </c>
     </row>
+    <row r="62">
+      <c r="A62">
+        <v>71314</v>
+      </c>
+      <c r="B62" t="str">
+        <v>DXS36</v>
+      </c>
+      <c r="C62" t="str">
+        <v>?</v>
+      </c>
+      <c r="D62" t="str">
+        <v>460</v>
+      </c>
+      <c r="E62" t="str">
+        <v>?</v>
+      </c>
+      <c r="F62" t="str">
+        <v>?</v>
+      </c>
+      <c r="G62" t="str">
+        <v>82863</v>
+      </c>
+      <c r="H62" t="str">
+        <v>NO</v>
+      </c>
+      <c r="I62" t="str">
+        <v/>
+      </c>
+      <c r="J62" t="str">
+        <v>wes</v>
+      </c>
+      <c r="K62" t="str">
+        <v>9/12/2022</v>
+      </c>
+      <c r="L62" t="b">
+        <v>0</v>
+      </c>
+      <c r="M62" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="N62" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="O62" t="str">
+        <v>NO</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:O61"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:O62"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/public/backup/jobs.xlsx
+++ b/public/backup/jobs.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O62"/>
+  <dimension ref="A1:O65"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3316,9 +3316,150 @@
         <v>NO</v>
       </c>
     </row>
+    <row r="63">
+      <c r="A63">
+        <v>71315</v>
+      </c>
+      <c r="B63" t="str">
+        <v>6DH13500TSK</v>
+      </c>
+      <c r="C63" t="str">
+        <v>ET  00H01487S</v>
+      </c>
+      <c r="D63" t="str">
+        <v>MULTI</v>
+      </c>
+      <c r="E63" t="str">
+        <v>?</v>
+      </c>
+      <c r="F63" t="str">
+        <v>GOOD</v>
+      </c>
+      <c r="G63" t="str">
+        <v>82934</v>
+      </c>
+      <c r="H63" t="str">
+        <v>NO</v>
+      </c>
+      <c r="I63" t="str">
+        <v/>
+      </c>
+      <c r="J63" t="str">
+        <v>ravi</v>
+      </c>
+      <c r="K63" t="str">
+        <v>9/12/2022</v>
+      </c>
+      <c r="L63" t="b">
+        <v>0</v>
+      </c>
+      <c r="M63" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="N63" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="O63" t="str">
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>71316</v>
+      </c>
+      <c r="B64" t="str">
+        <v>6DP3R35METSK</v>
+      </c>
+      <c r="C64" t="str">
+        <v>21B62598R</v>
+      </c>
+      <c r="D64" t="str">
+        <v>MULTI</v>
+      </c>
+      <c r="E64" t="str">
+        <v>?</v>
+      </c>
+      <c r="F64" t="str">
+        <v>GOOD</v>
+      </c>
+      <c r="G64" t="str">
+        <v>82926</v>
+      </c>
+      <c r="H64" t="str">
+        <v>NO</v>
+      </c>
+      <c r="I64" t="str">
+        <v/>
+      </c>
+      <c r="J64" t="str">
+        <v>ravi</v>
+      </c>
+      <c r="K64" t="str">
+        <v>9/12/2022</v>
+      </c>
+      <c r="L64" t="b">
+        <v>0</v>
+      </c>
+      <c r="M64" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="N64" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="O64" t="str">
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>71317</v>
+      </c>
+      <c r="B65" t="str">
+        <v>DXX36</v>
+      </c>
+      <c r="C65" t="str">
+        <v>3K9X067755</v>
+      </c>
+      <c r="D65" t="str">
+        <v>460</v>
+      </c>
+      <c r="E65" t="str">
+        <v>?</v>
+      </c>
+      <c r="F65" t="str">
+        <v>?</v>
+      </c>
+      <c r="G65" t="str">
+        <v>82867</v>
+      </c>
+      <c r="H65" t="str">
+        <v>NO</v>
+      </c>
+      <c r="I65" t="str">
+        <v/>
+      </c>
+      <c r="J65" t="str">
+        <v>ravi</v>
+      </c>
+      <c r="K65" t="str">
+        <v>9/12/2022</v>
+      </c>
+      <c r="L65" t="b">
+        <v>0</v>
+      </c>
+      <c r="M65" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="N65" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="O65" t="str">
+        <v>NO</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:O62"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:O65"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/public/backup/jobs.xlsx
+++ b/public/backup/jobs.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O65"/>
+  <dimension ref="A1:O68"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3457,9 +3457,150 @@
         <v>NO</v>
       </c>
     </row>
+    <row r="66">
+      <c r="A66">
+        <v>71318</v>
+      </c>
+      <c r="B66" t="str">
+        <v>NA</v>
+      </c>
+      <c r="C66" t="str">
+        <v>NA</v>
+      </c>
+      <c r="D66" t="str">
+        <v>MULTI</v>
+      </c>
+      <c r="E66" t="str">
+        <v>?</v>
+      </c>
+      <c r="F66" t="str">
+        <v>BAD</v>
+      </c>
+      <c r="G66" t="str">
+        <v>82628</v>
+      </c>
+      <c r="H66" t="str">
+        <v>NO</v>
+      </c>
+      <c r="I66" t="str">
+        <v/>
+      </c>
+      <c r="J66" t="str">
+        <v>ravi</v>
+      </c>
+      <c r="K66" t="str">
+        <v>9/12/2022</v>
+      </c>
+      <c r="L66" t="b">
+        <v>0</v>
+      </c>
+      <c r="M66" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="N66" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="O66" t="str">
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>71319</v>
+      </c>
+      <c r="B67" t="str">
+        <v>6DP3 3500 TSK</v>
+      </c>
+      <c r="C67" t="str">
+        <v>21G57035</v>
+      </c>
+      <c r="D67" t="str">
+        <v>MULTI</v>
+      </c>
+      <c r="E67" t="str">
+        <v>2</v>
+      </c>
+      <c r="F67" t="str">
+        <v>?</v>
+      </c>
+      <c r="G67" t="str">
+        <v>82932</v>
+      </c>
+      <c r="H67" t="str">
+        <v>NO</v>
+      </c>
+      <c r="I67" t="str">
+        <v/>
+      </c>
+      <c r="J67" t="str">
+        <v>ravi</v>
+      </c>
+      <c r="K67" t="str">
+        <v>9/12/2022</v>
+      </c>
+      <c r="L67" t="b">
+        <v>0</v>
+      </c>
+      <c r="M67" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="N67" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="O67" t="str">
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>70003</v>
+      </c>
+      <c r="B68" t="str">
+        <v>TEST06DS</v>
+      </c>
+      <c r="C68" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="D68" t="str">
+        <v>460</v>
+      </c>
+      <c r="E68" t="str">
+        <v>0</v>
+      </c>
+      <c r="F68" t="str">
+        <v>?</v>
+      </c>
+      <c r="G68" t="str">
+        <v>UU42839</v>
+      </c>
+      <c r="H68" t="str">
+        <v>true</v>
+      </c>
+      <c r="I68" t="str">
+        <v>false</v>
+      </c>
+      <c r="J68" t="str">
+        <v>spreadsheet</v>
+      </c>
+      <c r="K68" t="str">
+        <v>9/12/2022</v>
+      </c>
+      <c r="L68" t="b">
+        <v>0</v>
+      </c>
+      <c r="M68" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="N68" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="O68" t="str">
+        <v>?</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:O65"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:O68"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/public/backup/jobs.xlsx
+++ b/public/backup/jobs.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O68"/>
+  <dimension ref="A1:O103"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3553,13 +3553,13 @@
     </row>
     <row r="68">
       <c r="A68">
-        <v>70003</v>
+        <v>71320</v>
       </c>
       <c r="B68" t="str">
-        <v>TEST06DS</v>
+        <v>CRHR 400</v>
       </c>
       <c r="C68" t="str">
-        <v>N/A</v>
+        <v>NA</v>
       </c>
       <c r="D68" t="str">
         <v>460</v>
@@ -3568,22 +3568,22 @@
         <v>0</v>
       </c>
       <c r="F68" t="str">
-        <v>?</v>
+        <v>GOOD</v>
       </c>
       <c r="G68" t="str">
-        <v>UU42839</v>
+        <v>N/A</v>
       </c>
       <c r="H68" t="str">
-        <v>true</v>
+        <v>NO</v>
       </c>
       <c r="I68" t="str">
-        <v>false</v>
+        <v/>
       </c>
       <c r="J68" t="str">
-        <v>spreadsheet</v>
+        <v>ravi</v>
       </c>
       <c r="K68" t="str">
-        <v>9/12/2022</v>
+        <v>9/14/2022</v>
       </c>
       <c r="L68" t="b">
         <v>0</v>
@@ -3595,12 +3595,1657 @@
         <v>N/A</v>
       </c>
       <c r="O68" t="str">
-        <v>?</v>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <v>71321</v>
+      </c>
+      <c r="B69" t="str">
+        <v>JD632P46 50SR</v>
+      </c>
+      <c r="C69" t="str">
+        <v>Y05050285</v>
+      </c>
+      <c r="D69" t="str">
+        <v>460</v>
+      </c>
+      <c r="E69" t="str">
+        <v>?</v>
+      </c>
+      <c r="F69" t="str">
+        <v>BAD</v>
+      </c>
+      <c r="G69" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="H69" t="str">
+        <v>NO</v>
+      </c>
+      <c r="I69" t="str">
+        <v/>
+      </c>
+      <c r="J69" t="str">
+        <v>ravi</v>
+      </c>
+      <c r="K69" t="str">
+        <v>9/14/2022</v>
+      </c>
+      <c r="L69" t="b">
+        <v>0</v>
+      </c>
+      <c r="M69" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="N69" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="O69" t="str">
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>71322</v>
+      </c>
+      <c r="B70" t="str">
+        <v>5F20</v>
+      </c>
+      <c r="C70" t="str">
+        <v>64827NE9</v>
+      </c>
+      <c r="D70" t="str">
+        <v>OPEN</v>
+      </c>
+      <c r="E70" t="str">
+        <v>1</v>
+      </c>
+      <c r="F70" t="str">
+        <v>?</v>
+      </c>
+      <c r="G70" t="str">
+        <v>82968</v>
+      </c>
+      <c r="H70" t="str">
+        <v>NO</v>
+      </c>
+      <c r="I70" t="str">
+        <v/>
+      </c>
+      <c r="J70" t="str">
+        <v>ravi</v>
+      </c>
+      <c r="K70" t="str">
+        <v>9/14/2022</v>
+      </c>
+      <c r="L70" t="b">
+        <v>0</v>
+      </c>
+      <c r="M70" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="N70" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="O70" t="str">
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>71323</v>
+      </c>
+      <c r="B71" t="str">
+        <v>6DL2700TSK.  233</v>
+      </c>
+      <c r="C71" t="str">
+        <v>E.  06K01637R</v>
+      </c>
+      <c r="D71" t="str">
+        <v>MULTI</v>
+      </c>
+      <c r="E71" t="str">
+        <v>0</v>
+      </c>
+      <c r="F71" t="str">
+        <v>GOOD</v>
+      </c>
+      <c r="G71" t="str">
+        <v>82381</v>
+      </c>
+      <c r="H71" t="str">
+        <v>NO</v>
+      </c>
+      <c r="I71" t="str">
+        <v/>
+      </c>
+      <c r="J71" t="str">
+        <v>ravi</v>
+      </c>
+      <c r="K71" t="str">
+        <v>9/14/2022</v>
+      </c>
+      <c r="L71" t="b">
+        <v>0</v>
+      </c>
+      <c r="M71" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="N71" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="O71" t="str">
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>71324</v>
+      </c>
+      <c r="B72" t="str">
+        <v>CRHR400C-2AT</v>
+      </c>
+      <c r="C72" t="str">
+        <v>A 8D40L3988</v>
+      </c>
+      <c r="D72" t="str">
+        <v>460</v>
+      </c>
+      <c r="E72" t="str">
+        <v>1</v>
+      </c>
+      <c r="F72" t="str">
+        <v>GOOD</v>
+      </c>
+      <c r="G72" t="str">
+        <v>79226</v>
+      </c>
+      <c r="H72" t="str">
+        <v>NO</v>
+      </c>
+      <c r="I72" t="str">
+        <v/>
+      </c>
+      <c r="J72" t="str">
+        <v>ravi</v>
+      </c>
+      <c r="K72" t="str">
+        <v>9/14/2022</v>
+      </c>
+      <c r="L72" t="b">
+        <v>0</v>
+      </c>
+      <c r="M72" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="N72" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="O72" t="str">
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>71325</v>
+      </c>
+      <c r="B73" t="str">
+        <v>DXS45</v>
+      </c>
+      <c r="C73" t="str">
+        <v>.</v>
+      </c>
+      <c r="D73" t="str">
+        <v>460</v>
+      </c>
+      <c r="E73" t="str">
+        <v>?</v>
+      </c>
+      <c r="F73" t="str">
+        <v>BAD</v>
+      </c>
+      <c r="G73" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="H73" t="str">
+        <v>NO</v>
+      </c>
+      <c r="I73" t="str">
+        <v/>
+      </c>
+      <c r="J73" t="str">
+        <v>ravi</v>
+      </c>
+      <c r="K73" t="str">
+        <v>9/15/2022</v>
+      </c>
+      <c r="L73" t="b">
+        <v>0</v>
+      </c>
+      <c r="M73" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="N73" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="O73" t="str">
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <v>71326</v>
+      </c>
+      <c r="B74" t="str">
+        <v>06E6275 660</v>
+      </c>
+      <c r="C74" t="str">
+        <v>06K63597</v>
+      </c>
+      <c r="D74" t="str">
+        <v>460</v>
+      </c>
+      <c r="E74" t="str">
+        <v>1</v>
+      </c>
+      <c r="F74" t="str">
+        <v>BAD</v>
+      </c>
+      <c r="G74" t="str">
+        <v>82834</v>
+      </c>
+      <c r="H74" t="str">
+        <v>NO</v>
+      </c>
+      <c r="I74" t="str">
+        <v/>
+      </c>
+      <c r="J74" t="str">
+        <v>ravi</v>
+      </c>
+      <c r="K74" t="str">
+        <v>9/15/2022</v>
+      </c>
+      <c r="L74" t="b">
+        <v>0</v>
+      </c>
+      <c r="M74" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="N74" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="O74" t="str">
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <v>71327</v>
+      </c>
+      <c r="B75" t="str">
+        <v>2DA 0600 TFC</v>
+      </c>
+      <c r="C75" t="str">
+        <v>70828NG2</v>
+      </c>
+      <c r="D75" t="str">
+        <v>208</v>
+      </c>
+      <c r="E75" t="str">
+        <v>0</v>
+      </c>
+      <c r="F75" t="str">
+        <v>BAD</v>
+      </c>
+      <c r="G75" t="str">
+        <v>82913</v>
+      </c>
+      <c r="H75" t="str">
+        <v>NO</v>
+      </c>
+      <c r="I75" t="str">
+        <v/>
+      </c>
+      <c r="J75" t="str">
+        <v>ravi</v>
+      </c>
+      <c r="K75" t="str">
+        <v>9/15/2022</v>
+      </c>
+      <c r="L75" t="b">
+        <v>0</v>
+      </c>
+      <c r="M75" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="N75" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="O75" t="str">
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>71328</v>
+      </c>
+      <c r="B76" t="str">
+        <v>DXS36</v>
+      </c>
+      <c r="C76" t="str">
+        <v>NA</v>
+      </c>
+      <c r="D76" t="str">
+        <v>460</v>
+      </c>
+      <c r="E76" t="str">
+        <v>?</v>
+      </c>
+      <c r="F76" t="str">
+        <v>?</v>
+      </c>
+      <c r="G76" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="H76" t="str">
+        <v>NO</v>
+      </c>
+      <c r="I76" t="str">
+        <v/>
+      </c>
+      <c r="J76" t="str">
+        <v>ravi</v>
+      </c>
+      <c r="K76" t="str">
+        <v>9/16/2022</v>
+      </c>
+      <c r="L76" t="b">
+        <v>0</v>
+      </c>
+      <c r="M76" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="N76" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="O76" t="str">
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
+        <v>71329</v>
+      </c>
+      <c r="B77" t="str">
+        <v>JS36N. 46AG</v>
+      </c>
+      <c r="C77" t="str">
+        <v>15HR2259T0</v>
+      </c>
+      <c r="D77" t="str">
+        <v>460</v>
+      </c>
+      <c r="E77" t="str">
+        <v>2</v>
+      </c>
+      <c r="F77" t="str">
+        <v>GOOD</v>
+      </c>
+      <c r="G77" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="H77" t="str">
+        <v>NO</v>
+      </c>
+      <c r="I77" t="str">
+        <v/>
+      </c>
+      <c r="J77" t="str">
+        <v>ravi</v>
+      </c>
+      <c r="K77" t="str">
+        <v>9/16/2022</v>
+      </c>
+      <c r="L77" t="b">
+        <v>0</v>
+      </c>
+      <c r="M77" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="N77" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="O77" t="str">
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <v>71330</v>
+      </c>
+      <c r="B78" t="str">
+        <v>CRHF250B3C1P0R1GB0</v>
+      </c>
+      <c r="C78" t="str">
+        <v>N12H03892</v>
+      </c>
+      <c r="D78" t="str">
+        <v>MULTI</v>
+      </c>
+      <c r="E78" t="str">
+        <v>?</v>
+      </c>
+      <c r="F78" t="str">
+        <v>BAD</v>
+      </c>
+      <c r="G78" t="str">
+        <v>83018</v>
+      </c>
+      <c r="H78" t="str">
+        <v>NO</v>
+      </c>
+      <c r="I78" t="str">
+        <v/>
+      </c>
+      <c r="J78" t="str">
+        <v>ravi</v>
+      </c>
+      <c r="K78" t="str">
+        <v>9/19/2022</v>
+      </c>
+      <c r="L78" t="b">
+        <v>0</v>
+      </c>
+      <c r="M78" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="N78" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="O78" t="str">
+        <v>?</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <v>71331</v>
+      </c>
+      <c r="B79" t="str">
+        <v>311DLFN2</v>
+      </c>
+      <c r="C79" t="str">
+        <v>58034NC6</v>
+      </c>
+      <c r="D79" t="str">
+        <v>OPEN</v>
+      </c>
+      <c r="E79" t="str">
+        <v>?</v>
+      </c>
+      <c r="F79" t="str">
+        <v>?</v>
+      </c>
+      <c r="G79" t="str">
+        <v>82911</v>
+      </c>
+      <c r="H79" t="str">
+        <v>NO</v>
+      </c>
+      <c r="I79" t="str">
+        <v/>
+      </c>
+      <c r="J79" t="str">
+        <v>ravi</v>
+      </c>
+      <c r="K79" t="str">
+        <v>9/19/2022</v>
+      </c>
+      <c r="L79" t="b">
+        <v>0</v>
+      </c>
+      <c r="M79" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="N79" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="O79" t="str">
+        <v>?</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <v>71332</v>
+      </c>
+      <c r="B80" t="str">
+        <v>5F20-A219</v>
+      </c>
+      <c r="C80" t="str">
+        <v>65074NF9</v>
+      </c>
+      <c r="D80" t="str">
+        <v>OPEN</v>
+      </c>
+      <c r="E80" t="str">
+        <v>?</v>
+      </c>
+      <c r="F80" t="str">
+        <v>?</v>
+      </c>
+      <c r="G80" t="str">
+        <v>83020</v>
+      </c>
+      <c r="H80" t="str">
+        <v>NO</v>
+      </c>
+      <c r="I80" t="str">
+        <v/>
+      </c>
+      <c r="J80" t="str">
+        <v>ravi</v>
+      </c>
+      <c r="K80" t="str">
+        <v>9/19/2022</v>
+      </c>
+      <c r="L80" t="b">
+        <v>0</v>
+      </c>
+      <c r="M80" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="N80" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="O80" t="str">
+        <v>?</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <v>71333</v>
+      </c>
+      <c r="B81" t="str">
+        <v>5H40-A219</v>
+      </c>
+      <c r="C81" t="str">
+        <v>W0021068</v>
+      </c>
+      <c r="D81" t="str">
+        <v>OPEN</v>
+      </c>
+      <c r="E81" t="str">
+        <v>?</v>
+      </c>
+      <c r="F81" t="str">
+        <v>?</v>
+      </c>
+      <c r="G81" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="H81" t="str">
+        <v>NO</v>
+      </c>
+      <c r="I81" t="str">
+        <v/>
+      </c>
+      <c r="J81" t="str">
+        <v>ravi</v>
+      </c>
+      <c r="K81" t="str">
+        <v>9/19/2022</v>
+      </c>
+      <c r="L81" t="b">
+        <v>0</v>
+      </c>
+      <c r="M81" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="N81" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="O81" t="str">
+        <v>?</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
+        <v>71334</v>
+      </c>
+      <c r="B82" t="str">
+        <v>06DC5379DC1900</v>
+      </c>
+      <c r="C82" t="str">
+        <v>1512UD1021</v>
+      </c>
+      <c r="D82" t="str">
+        <v>MULTI</v>
+      </c>
+      <c r="E82" t="str">
+        <v>2</v>
+      </c>
+      <c r="F82" t="str">
+        <v>GOOD</v>
+      </c>
+      <c r="G82" t="str">
+        <v>82947</v>
+      </c>
+      <c r="H82" t="str">
+        <v>YES</v>
+      </c>
+      <c r="I82" t="str">
+        <v>70984  n</v>
+      </c>
+      <c r="J82" t="str">
+        <v>ravi</v>
+      </c>
+      <c r="K82" t="str">
+        <v>9/19/2022</v>
+      </c>
+      <c r="L82" t="b">
+        <v>0</v>
+      </c>
+      <c r="M82" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="N82" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="O82" t="str">
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <v>71335</v>
+      </c>
+      <c r="B83" t="str">
+        <v>06DC5379DC1900</v>
+      </c>
+      <c r="C83" t="str">
+        <v>2817UD2010</v>
+      </c>
+      <c r="D83" t="str">
+        <v>MULTI</v>
+      </c>
+      <c r="E83" t="str">
+        <v>2</v>
+      </c>
+      <c r="F83" t="str">
+        <v>BAD</v>
+      </c>
+      <c r="G83" t="str">
+        <v>82948</v>
+      </c>
+      <c r="H83" t="str">
+        <v>YES</v>
+      </c>
+      <c r="I83" t="str">
+        <v>70967. N</v>
+      </c>
+      <c r="J83" t="str">
+        <v>ravi</v>
+      </c>
+      <c r="K83" t="str">
+        <v>9/19/2022</v>
+      </c>
+      <c r="L83" t="b">
+        <v>0</v>
+      </c>
+      <c r="M83" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="N83" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="O83" t="str">
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
+        <v>71336</v>
+      </c>
+      <c r="B84" t="str">
+        <v>06DG5376DC0600</v>
+      </c>
+      <c r="C84" t="str">
+        <v>69695NL1</v>
+      </c>
+      <c r="D84" t="str">
+        <v>460</v>
+      </c>
+      <c r="E84" t="str">
+        <v>2</v>
+      </c>
+      <c r="F84" t="str">
+        <v>BAD</v>
+      </c>
+      <c r="G84" t="str">
+        <v>82922</v>
+      </c>
+      <c r="H84" t="str">
+        <v>YES</v>
+      </c>
+      <c r="I84" t="str">
+        <v>69695. N</v>
+      </c>
+      <c r="J84" t="str">
+        <v>ravi</v>
+      </c>
+      <c r="K84" t="str">
+        <v>9/19/2022</v>
+      </c>
+      <c r="L84" t="b">
+        <v>0</v>
+      </c>
+      <c r="M84" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="N84" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="O84" t="str">
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <v>71337</v>
+      </c>
+      <c r="B85" t="str">
+        <v>06EY79934ARP</v>
+      </c>
+      <c r="C85" t="str">
+        <v>2118UE1391</v>
+      </c>
+      <c r="D85" t="str">
+        <v>MULTI</v>
+      </c>
+      <c r="E85" t="str">
+        <v>?</v>
+      </c>
+      <c r="F85" t="str">
+        <v>GOOD</v>
+      </c>
+      <c r="G85" t="str">
+        <v>82570</v>
+      </c>
+      <c r="H85" t="str">
+        <v>NO</v>
+      </c>
+      <c r="I85" t="str">
+        <v/>
+      </c>
+      <c r="J85" t="str">
+        <v>ravi</v>
+      </c>
+      <c r="K85" t="str">
+        <v>9/19/2022</v>
+      </c>
+      <c r="L85" t="b">
+        <v>0</v>
+      </c>
+      <c r="M85" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="N85" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="O85" t="str">
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <v>71338</v>
+      </c>
+      <c r="B86" t="str">
+        <v>06E6299 660</v>
+      </c>
+      <c r="C86" t="str">
+        <v>08H71859</v>
+      </c>
+      <c r="D86" t="str">
+        <v>460</v>
+      </c>
+      <c r="E86" t="str">
+        <v>1</v>
+      </c>
+      <c r="F86" t="str">
+        <v>?</v>
+      </c>
+      <c r="G86" t="str">
+        <v>82389</v>
+      </c>
+      <c r="H86" t="str">
+        <v>NO</v>
+      </c>
+      <c r="I86" t="str">
+        <v/>
+      </c>
+      <c r="J86" t="str">
+        <v>ravi</v>
+      </c>
+      <c r="K86" t="str">
+        <v>9/19/2022</v>
+      </c>
+      <c r="L86" t="b">
+        <v>0</v>
+      </c>
+      <c r="M86" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="N86" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="O86" t="str">
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <v>71339</v>
+      </c>
+      <c r="B87" t="str">
+        <v>06EZ499360</v>
+      </c>
+      <c r="C87" t="str">
+        <v>55997NG5</v>
+      </c>
+      <c r="D87" t="str">
+        <v>MULTI</v>
+      </c>
+      <c r="E87" t="str">
+        <v>?</v>
+      </c>
+      <c r="F87" t="str">
+        <v>BAD</v>
+      </c>
+      <c r="G87" t="str">
+        <v>82760</v>
+      </c>
+      <c r="H87" t="str">
+        <v>NO</v>
+      </c>
+      <c r="I87" t="str">
+        <v/>
+      </c>
+      <c r="J87" t="str">
+        <v>ravi</v>
+      </c>
+      <c r="K87" t="str">
+        <v>9/19/2022</v>
+      </c>
+      <c r="L87" t="b">
+        <v>0</v>
+      </c>
+      <c r="M87" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="N87" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="O87" t="str">
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <v>71340</v>
+      </c>
+      <c r="B88" t="str">
+        <v>06ET250 360</v>
+      </c>
+      <c r="C88" t="str">
+        <v>2113UE6908</v>
+      </c>
+      <c r="D88" t="str">
+        <v>MULTI</v>
+      </c>
+      <c r="E88" t="str">
+        <v>0</v>
+      </c>
+      <c r="F88" t="str">
+        <v>GOOD</v>
+      </c>
+      <c r="G88" t="str">
+        <v>82853</v>
+      </c>
+      <c r="H88" t="str">
+        <v>NO</v>
+      </c>
+      <c r="I88" t="str">
+        <v/>
+      </c>
+      <c r="J88" t="str">
+        <v>ravi</v>
+      </c>
+      <c r="K88" t="str">
+        <v>9/20/2022</v>
+      </c>
+      <c r="L88" t="b">
+        <v>0</v>
+      </c>
+      <c r="M88" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="N88" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="O88" t="str">
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <v>71341</v>
+      </c>
+      <c r="B89" t="str">
+        <v>06E6299 660</v>
+      </c>
+      <c r="C89" t="str">
+        <v>08H718859</v>
+      </c>
+      <c r="D89" t="str">
+        <v>460</v>
+      </c>
+      <c r="E89" t="str">
+        <v>?</v>
+      </c>
+      <c r="F89" t="str">
+        <v>GOOD</v>
+      </c>
+      <c r="G89" t="str">
+        <v>71338</v>
+      </c>
+      <c r="H89" t="str">
+        <v>NO</v>
+      </c>
+      <c r="I89" t="str">
+        <v/>
+      </c>
+      <c r="J89" t="str">
+        <v>ravi</v>
+      </c>
+      <c r="K89" t="str">
+        <v>9/20/2022</v>
+      </c>
+      <c r="L89" t="b">
+        <v>0</v>
+      </c>
+      <c r="M89" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="N89" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="O89" t="str">
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <v>71342</v>
+      </c>
+      <c r="B90" t="str">
+        <v>06EY799 34ARP</v>
+      </c>
+      <c r="C90" t="str">
+        <v>2118UE1391</v>
+      </c>
+      <c r="D90" t="str">
+        <v>MULTI</v>
+      </c>
+      <c r="E90" t="str">
+        <v>?</v>
+      </c>
+      <c r="F90" t="str">
+        <v>GOOD</v>
+      </c>
+      <c r="G90" t="str">
+        <v>82570</v>
+      </c>
+      <c r="H90" t="str">
+        <v>NO</v>
+      </c>
+      <c r="I90" t="str">
+        <v/>
+      </c>
+      <c r="J90" t="str">
+        <v>ravi</v>
+      </c>
+      <c r="K90" t="str">
+        <v>9/20/2022</v>
+      </c>
+      <c r="L90" t="b">
+        <v>0</v>
+      </c>
+      <c r="M90" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="N90" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="O90" t="str">
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>71343</v>
+      </c>
+      <c r="B91" t="str">
+        <v>06EY799 34ARP</v>
+      </c>
+      <c r="C91" t="str">
+        <v>2118UE1391</v>
+      </c>
+      <c r="D91" t="str">
+        <v>MULTI</v>
+      </c>
+      <c r="E91" t="str">
+        <v>?</v>
+      </c>
+      <c r="F91" t="str">
+        <v>GOOD</v>
+      </c>
+      <c r="G91" t="str">
+        <v>82570</v>
+      </c>
+      <c r="H91" t="str">
+        <v>NO</v>
+      </c>
+      <c r="I91" t="str">
+        <v/>
+      </c>
+      <c r="J91" t="str">
+        <v>ravi</v>
+      </c>
+      <c r="K91" t="str">
+        <v>9/20/2022</v>
+      </c>
+      <c r="L91" t="b">
+        <v>0</v>
+      </c>
+      <c r="M91" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="N91" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="O91" t="str">
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <v>71344</v>
+      </c>
+      <c r="B92" t="str">
+        <v>06E250. 36A</v>
+      </c>
+      <c r="C92" t="str">
+        <v>65877NF0</v>
+      </c>
+      <c r="D92" t="str">
+        <v>MULTI</v>
+      </c>
+      <c r="E92" t="str">
+        <v>?</v>
+      </c>
+      <c r="F92" t="str">
+        <v>GOOD</v>
+      </c>
+      <c r="G92" t="str">
+        <v>82893</v>
+      </c>
+      <c r="H92" t="str">
+        <v>NO</v>
+      </c>
+      <c r="I92" t="str">
+        <v/>
+      </c>
+      <c r="J92" t="str">
+        <v>ravi</v>
+      </c>
+      <c r="K92" t="str">
+        <v>9/20/2022</v>
+      </c>
+      <c r="L92" t="b">
+        <v>0</v>
+      </c>
+      <c r="M92" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="N92" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="O92" t="str">
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93">
+        <v>71345</v>
+      </c>
+      <c r="B93" t="str">
+        <v>06E6750 360</v>
+      </c>
+      <c r="C93" t="str">
+        <v>6164NA0</v>
+      </c>
+      <c r="D93" t="str">
+        <v>MULTI</v>
+      </c>
+      <c r="E93" t="str">
+        <v>?</v>
+      </c>
+      <c r="F93" t="str">
+        <v>GOOD</v>
+      </c>
+      <c r="G93" t="str">
+        <v>82892</v>
+      </c>
+      <c r="H93" t="str">
+        <v>NO</v>
+      </c>
+      <c r="I93" t="str">
+        <v/>
+      </c>
+      <c r="J93" t="str">
+        <v>ravi</v>
+      </c>
+      <c r="K93" t="str">
+        <v>9/20/2022</v>
+      </c>
+      <c r="L93" t="b">
+        <v>0</v>
+      </c>
+      <c r="M93" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="N93" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="O93" t="str">
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94">
+        <v>71346</v>
+      </c>
+      <c r="B94" t="str">
+        <v>06EM499 300</v>
+      </c>
+      <c r="C94" t="str">
+        <v>0301J02194</v>
+      </c>
+      <c r="D94" t="str">
+        <v>MULTI</v>
+      </c>
+      <c r="E94" t="str">
+        <v>?</v>
+      </c>
+      <c r="F94" t="str">
+        <v>GOOD</v>
+      </c>
+      <c r="G94" t="str">
+        <v>82488</v>
+      </c>
+      <c r="H94" t="str">
+        <v>NO</v>
+      </c>
+      <c r="I94" t="str">
+        <v/>
+      </c>
+      <c r="J94" t="str">
+        <v>ravi</v>
+      </c>
+      <c r="K94" t="str">
+        <v>9/20/2022</v>
+      </c>
+      <c r="L94" t="b">
+        <v>0</v>
+      </c>
+      <c r="M94" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="N94" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="O94" t="str">
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95">
+        <v>71347</v>
+      </c>
+      <c r="B95" t="str">
+        <v>DXS45</v>
+      </c>
+      <c r="C95" t="str">
+        <v>VCLX050589</v>
+      </c>
+      <c r="D95" t="str">
+        <v>460</v>
+      </c>
+      <c r="E95" t="str">
+        <v>?</v>
+      </c>
+      <c r="F95" t="str">
+        <v>BAD</v>
+      </c>
+      <c r="G95" t="str">
+        <v>80589</v>
+      </c>
+      <c r="H95" t="str">
+        <v>NO</v>
+      </c>
+      <c r="I95" t="str">
+        <v/>
+      </c>
+      <c r="J95" t="str">
+        <v>ravi</v>
+      </c>
+      <c r="K95" t="str">
+        <v>9/20/2022</v>
+      </c>
+      <c r="L95" t="b">
+        <v>0</v>
+      </c>
+      <c r="M95" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="N95" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="O95" t="str">
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96">
+        <v>71348</v>
+      </c>
+      <c r="B96" t="str">
+        <v>DXS36</v>
+      </c>
+      <c r="C96" t="str">
+        <v>VKMX122307</v>
+      </c>
+      <c r="D96" t="str">
+        <v>575</v>
+      </c>
+      <c r="E96" t="str">
+        <v>?</v>
+      </c>
+      <c r="F96" t="str">
+        <v>BAD</v>
+      </c>
+      <c r="G96" t="str">
+        <v>81608</v>
+      </c>
+      <c r="H96" t="str">
+        <v>NO</v>
+      </c>
+      <c r="I96" t="str">
+        <v/>
+      </c>
+      <c r="J96" t="str">
+        <v>ravi</v>
+      </c>
+      <c r="K96" t="str">
+        <v>9/20/2022</v>
+      </c>
+      <c r="L96" t="b">
+        <v>0</v>
+      </c>
+      <c r="M96" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="N96" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="O96" t="str">
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97">
+        <v>71349</v>
+      </c>
+      <c r="B97" t="str">
+        <v>DXS45</v>
+      </c>
+      <c r="C97" t="str">
+        <v>?</v>
+      </c>
+      <c r="D97" t="str">
+        <v>460</v>
+      </c>
+      <c r="E97" t="str">
+        <v>?</v>
+      </c>
+      <c r="F97" t="str">
+        <v>BAD</v>
+      </c>
+      <c r="G97" t="str">
+        <v>79211</v>
+      </c>
+      <c r="H97" t="str">
+        <v>NO</v>
+      </c>
+      <c r="I97" t="str">
+        <v/>
+      </c>
+      <c r="J97" t="str">
+        <v>ravi</v>
+      </c>
+      <c r="K97" t="str">
+        <v>9/20/2022</v>
+      </c>
+      <c r="L97" t="b">
+        <v>0</v>
+      </c>
+      <c r="M97" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="N97" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="O97" t="str">
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98">
+        <v>71350</v>
+      </c>
+      <c r="B98" t="str">
+        <v>06EY799 36A</v>
+      </c>
+      <c r="C98" t="str">
+        <v>66816NC1</v>
+      </c>
+      <c r="D98" t="str">
+        <v>MULTI</v>
+      </c>
+      <c r="E98" t="str">
+        <v>?</v>
+      </c>
+      <c r="F98" t="str">
+        <v>BAD</v>
+      </c>
+      <c r="G98" t="str">
+        <v>83005</v>
+      </c>
+      <c r="H98" t="str">
+        <v>NO</v>
+      </c>
+      <c r="I98" t="str">
+        <v/>
+      </c>
+      <c r="J98" t="str">
+        <v>ravi</v>
+      </c>
+      <c r="K98" t="str">
+        <v>9/21/2022</v>
+      </c>
+      <c r="L98" t="b">
+        <v>0</v>
+      </c>
+      <c r="M98" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="N98" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="O98" t="str">
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99">
+        <v>71351</v>
+      </c>
+      <c r="B99" t="str">
+        <v>4RK2 2500 TSK</v>
+      </c>
+      <c r="C99" t="str">
+        <v>60664NA0</v>
+      </c>
+      <c r="D99" t="str">
+        <v>MULTI</v>
+      </c>
+      <c r="E99" t="str">
+        <v>?</v>
+      </c>
+      <c r="F99" t="str">
+        <v>BAD</v>
+      </c>
+      <c r="G99" t="str">
+        <v>82725</v>
+      </c>
+      <c r="H99" t="str">
+        <v>NO</v>
+      </c>
+      <c r="I99" t="str">
+        <v/>
+      </c>
+      <c r="J99" t="str">
+        <v>ravi</v>
+      </c>
+      <c r="K99" t="str">
+        <v>9/21/2022</v>
+      </c>
+      <c r="L99" t="b">
+        <v>0</v>
+      </c>
+      <c r="M99" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="N99" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="O99" t="str">
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100">
+        <v>71352</v>
+      </c>
+      <c r="B100" t="str">
+        <v>4DR13000TSK</v>
+      </c>
+      <c r="C100" t="str">
+        <v>67693NL1</v>
+      </c>
+      <c r="D100" t="str">
+        <v>MULTI</v>
+      </c>
+      <c r="E100" t="str">
+        <v>?</v>
+      </c>
+      <c r="F100" t="str">
+        <v>GOOD</v>
+      </c>
+      <c r="G100" t="str">
+        <v>82856</v>
+      </c>
+      <c r="H100" t="str">
+        <v>NO</v>
+      </c>
+      <c r="I100" t="str">
+        <v/>
+      </c>
+      <c r="J100" t="str">
+        <v>ravi</v>
+      </c>
+      <c r="K100" t="str">
+        <v>9/21/2022</v>
+      </c>
+      <c r="L100" t="b">
+        <v>0</v>
+      </c>
+      <c r="M100" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="N100" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="O100" t="str">
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101">
+        <v>71353</v>
+      </c>
+      <c r="B101" t="str">
+        <v>4DJ3 3000 TSK</v>
+      </c>
+      <c r="C101" t="str">
+        <v>70087NC2</v>
+      </c>
+      <c r="D101" t="str">
+        <v>MULTI</v>
+      </c>
+      <c r="E101" t="str">
+        <v>?</v>
+      </c>
+      <c r="F101" t="str">
+        <v>GOOD</v>
+      </c>
+      <c r="G101" t="str">
+        <v>82830</v>
+      </c>
+      <c r="H101" t="str">
+        <v>NO</v>
+      </c>
+      <c r="I101" t="str">
+        <v/>
+      </c>
+      <c r="J101" t="str">
+        <v>ravi</v>
+      </c>
+      <c r="K101" t="str">
+        <v>9/21/2022</v>
+      </c>
+      <c r="L101" t="b">
+        <v>0</v>
+      </c>
+      <c r="M101" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="N101" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="O101" t="str">
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102">
+        <v>71354</v>
+      </c>
+      <c r="B102" t="str">
+        <v>LAHP 0310 TFC</v>
+      </c>
+      <c r="C102" t="str">
+        <v>70151NG2</v>
+      </c>
+      <c r="D102" t="str">
+        <v>208</v>
+      </c>
+      <c r="E102" t="str">
+        <v>0</v>
+      </c>
+      <c r="F102" t="str">
+        <v>BAD</v>
+      </c>
+      <c r="G102" t="str">
+        <v>82833</v>
+      </c>
+      <c r="H102" t="str">
+        <v>NO</v>
+      </c>
+      <c r="I102" t="str">
+        <v/>
+      </c>
+      <c r="J102" t="str">
+        <v>ravi</v>
+      </c>
+      <c r="K102" t="str">
+        <v>9/22/2022</v>
+      </c>
+      <c r="L102" t="b">
+        <v>0</v>
+      </c>
+      <c r="M102" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="N102" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="O102" t="str">
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103">
+        <v>71355</v>
+      </c>
+      <c r="B103" t="str">
+        <v>3DT3 1500 TFC</v>
+      </c>
+      <c r="C103" t="str">
+        <v>69056NF2</v>
+      </c>
+      <c r="D103" t="str">
+        <v>208</v>
+      </c>
+      <c r="E103" t="str">
+        <v>1</v>
+      </c>
+      <c r="F103" t="str">
+        <v>GOOD</v>
+      </c>
+      <c r="G103" t="str">
+        <v>82876</v>
+      </c>
+      <c r="H103" t="str">
+        <v>NO</v>
+      </c>
+      <c r="I103" t="str">
+        <v/>
+      </c>
+      <c r="J103" t="str">
+        <v>ravi</v>
+      </c>
+      <c r="K103" t="str">
+        <v>9/22/2022</v>
+      </c>
+      <c r="L103" t="b">
+        <v>0</v>
+      </c>
+      <c r="M103" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="N103" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="O103" t="str">
+        <v>YES</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:O68"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:O103"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/public/backup/jobs.xlsx
+++ b/public/backup/jobs.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O103"/>
+  <dimension ref="A1:O105"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4587,13 +4587,13 @@
     </row>
     <row r="90">
       <c r="A90">
-        <v>71342</v>
+        <v>71344</v>
       </c>
       <c r="B90" t="str">
-        <v>06EY799 34ARP</v>
+        <v>06E250. 36A</v>
       </c>
       <c r="C90" t="str">
-        <v>2118UE1391</v>
+        <v>65877NF0</v>
       </c>
       <c r="D90" t="str">
         <v>MULTI</v>
@@ -4605,7 +4605,7 @@
         <v>GOOD</v>
       </c>
       <c r="G90" t="str">
-        <v>82570</v>
+        <v>82893</v>
       </c>
       <c r="H90" t="str">
         <v>NO</v>
@@ -4634,13 +4634,13 @@
     </row>
     <row r="91">
       <c r="A91">
-        <v>71343</v>
+        <v>71345</v>
       </c>
       <c r="B91" t="str">
-        <v>06EY799 34ARP</v>
+        <v>06E6750 360</v>
       </c>
       <c r="C91" t="str">
-        <v>2118UE1391</v>
+        <v>6164NA0</v>
       </c>
       <c r="D91" t="str">
         <v>MULTI</v>
@@ -4652,7 +4652,7 @@
         <v>GOOD</v>
       </c>
       <c r="G91" t="str">
-        <v>82570</v>
+        <v>82892</v>
       </c>
       <c r="H91" t="str">
         <v>NO</v>
@@ -4681,13 +4681,13 @@
     </row>
     <row r="92">
       <c r="A92">
-        <v>71344</v>
+        <v>71346</v>
       </c>
       <c r="B92" t="str">
-        <v>06E250. 36A</v>
+        <v>06EM499 300</v>
       </c>
       <c r="C92" t="str">
-        <v>65877NF0</v>
+        <v>0301J02194</v>
       </c>
       <c r="D92" t="str">
         <v>MULTI</v>
@@ -4699,7 +4699,7 @@
         <v>GOOD</v>
       </c>
       <c r="G92" t="str">
-        <v>82893</v>
+        <v>82488</v>
       </c>
       <c r="H92" t="str">
         <v>NO</v>
@@ -4728,25 +4728,25 @@
     </row>
     <row r="93">
       <c r="A93">
-        <v>71345</v>
+        <v>71347</v>
       </c>
       <c r="B93" t="str">
-        <v>06E6750 360</v>
+        <v>DXS45</v>
       </c>
       <c r="C93" t="str">
-        <v>6164NA0</v>
+        <v>VCLX050589</v>
       </c>
       <c r="D93" t="str">
-        <v>MULTI</v>
+        <v>460</v>
       </c>
       <c r="E93" t="str">
         <v>?</v>
       </c>
       <c r="F93" t="str">
-        <v>GOOD</v>
+        <v>BAD</v>
       </c>
       <c r="G93" t="str">
-        <v>82892</v>
+        <v>80589</v>
       </c>
       <c r="H93" t="str">
         <v>NO</v>
@@ -4775,25 +4775,25 @@
     </row>
     <row r="94">
       <c r="A94">
-        <v>71346</v>
+        <v>71348</v>
       </c>
       <c r="B94" t="str">
-        <v>06EM499 300</v>
+        <v>DXS36</v>
       </c>
       <c r="C94" t="str">
-        <v>0301J02194</v>
+        <v>VKMX122307</v>
       </c>
       <c r="D94" t="str">
-        <v>MULTI</v>
+        <v>575</v>
       </c>
       <c r="E94" t="str">
         <v>?</v>
       </c>
       <c r="F94" t="str">
-        <v>GOOD</v>
+        <v>BAD</v>
       </c>
       <c r="G94" t="str">
-        <v>82488</v>
+        <v>81608</v>
       </c>
       <c r="H94" t="str">
         <v>NO</v>
@@ -4822,13 +4822,13 @@
     </row>
     <row r="95">
       <c r="A95">
-        <v>71347</v>
+        <v>71349</v>
       </c>
       <c r="B95" t="str">
         <v>DXS45</v>
       </c>
       <c r="C95" t="str">
-        <v>VCLX050589</v>
+        <v>?</v>
       </c>
       <c r="D95" t="str">
         <v>460</v>
@@ -4840,7 +4840,7 @@
         <v>BAD</v>
       </c>
       <c r="G95" t="str">
-        <v>80589</v>
+        <v>79211</v>
       </c>
       <c r="H95" t="str">
         <v>NO</v>
@@ -4869,16 +4869,16 @@
     </row>
     <row r="96">
       <c r="A96">
-        <v>71348</v>
+        <v>71350</v>
       </c>
       <c r="B96" t="str">
-        <v>DXS36</v>
+        <v>06EY799 36A</v>
       </c>
       <c r="C96" t="str">
-        <v>VKMX122307</v>
+        <v>66816NC1</v>
       </c>
       <c r="D96" t="str">
-        <v>575</v>
+        <v>MULTI</v>
       </c>
       <c r="E96" t="str">
         <v>?</v>
@@ -4887,7 +4887,7 @@
         <v>BAD</v>
       </c>
       <c r="G96" t="str">
-        <v>81608</v>
+        <v>83005</v>
       </c>
       <c r="H96" t="str">
         <v>NO</v>
@@ -4899,7 +4899,7 @@
         <v>ravi</v>
       </c>
       <c r="K96" t="str">
-        <v>9/20/2022</v>
+        <v>9/21/2022</v>
       </c>
       <c r="L96" t="b">
         <v>0</v>
@@ -4911,21 +4911,21 @@
         <v>N/A</v>
       </c>
       <c r="O96" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="97">
       <c r="A97">
-        <v>71349</v>
+        <v>71351</v>
       </c>
       <c r="B97" t="str">
-        <v>DXS45</v>
+        <v>4RK2 2500 TSK</v>
       </c>
       <c r="C97" t="str">
-        <v>?</v>
+        <v>60664NA0</v>
       </c>
       <c r="D97" t="str">
-        <v>460</v>
+        <v>MULTI</v>
       </c>
       <c r="E97" t="str">
         <v>?</v>
@@ -4934,7 +4934,7 @@
         <v>BAD</v>
       </c>
       <c r="G97" t="str">
-        <v>79211</v>
+        <v>82725</v>
       </c>
       <c r="H97" t="str">
         <v>NO</v>
@@ -4946,7 +4946,7 @@
         <v>ravi</v>
       </c>
       <c r="K97" t="str">
-        <v>9/20/2022</v>
+        <v>9/21/2022</v>
       </c>
       <c r="L97" t="b">
         <v>0</v>
@@ -4958,18 +4958,18 @@
         <v>N/A</v>
       </c>
       <c r="O97" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="98">
       <c r="A98">
-        <v>71350</v>
+        <v>71352</v>
       </c>
       <c r="B98" t="str">
-        <v>06EY799 36A</v>
+        <v>4DR13000TSK</v>
       </c>
       <c r="C98" t="str">
-        <v>66816NC1</v>
+        <v>67693NL1</v>
       </c>
       <c r="D98" t="str">
         <v>MULTI</v>
@@ -4978,10 +4978,10 @@
         <v>?</v>
       </c>
       <c r="F98" t="str">
-        <v>BAD</v>
+        <v>GOOD</v>
       </c>
       <c r="G98" t="str">
-        <v>83005</v>
+        <v>82856</v>
       </c>
       <c r="H98" t="str">
         <v>NO</v>
@@ -5010,13 +5010,13 @@
     </row>
     <row r="99">
       <c r="A99">
-        <v>71351</v>
+        <v>71353</v>
       </c>
       <c r="B99" t="str">
-        <v>4RK2 2500 TSK</v>
+        <v>4DJ3 3000 TSK</v>
       </c>
       <c r="C99" t="str">
-        <v>60664NA0</v>
+        <v>70087NC2</v>
       </c>
       <c r="D99" t="str">
         <v>MULTI</v>
@@ -5025,10 +5025,10 @@
         <v>?</v>
       </c>
       <c r="F99" t="str">
-        <v>BAD</v>
+        <v>GOOD</v>
       </c>
       <c r="G99" t="str">
-        <v>82725</v>
+        <v>82830</v>
       </c>
       <c r="H99" t="str">
         <v>NO</v>
@@ -5057,25 +5057,25 @@
     </row>
     <row r="100">
       <c r="A100">
-        <v>71352</v>
+        <v>71354</v>
       </c>
       <c r="B100" t="str">
-        <v>4DR13000TSK</v>
+        <v>LAHP 0310 TFC</v>
       </c>
       <c r="C100" t="str">
-        <v>67693NL1</v>
+        <v>70151NG2</v>
       </c>
       <c r="D100" t="str">
-        <v>MULTI</v>
+        <v>208</v>
       </c>
       <c r="E100" t="str">
-        <v>?</v>
+        <v>0</v>
       </c>
       <c r="F100" t="str">
-        <v>GOOD</v>
+        <v>BAD</v>
       </c>
       <c r="G100" t="str">
-        <v>82856</v>
+        <v>82833</v>
       </c>
       <c r="H100" t="str">
         <v>NO</v>
@@ -5087,7 +5087,7 @@
         <v>ravi</v>
       </c>
       <c r="K100" t="str">
-        <v>9/21/2022</v>
+        <v>9/22/2022</v>
       </c>
       <c r="L100" t="b">
         <v>0</v>
@@ -5104,25 +5104,25 @@
     </row>
     <row r="101">
       <c r="A101">
-        <v>71353</v>
+        <v>71355</v>
       </c>
       <c r="B101" t="str">
-        <v>4DJ3 3000 TSK</v>
+        <v>3DT3 1500 TFC</v>
       </c>
       <c r="C101" t="str">
-        <v>70087NC2</v>
+        <v>69056NF2</v>
       </c>
       <c r="D101" t="str">
-        <v>MULTI</v>
+        <v>208</v>
       </c>
       <c r="E101" t="str">
-        <v>?</v>
+        <v>1</v>
       </c>
       <c r="F101" t="str">
         <v>GOOD</v>
       </c>
       <c r="G101" t="str">
-        <v>82830</v>
+        <v>82876</v>
       </c>
       <c r="H101" t="str">
         <v>NO</v>
@@ -5134,7 +5134,7 @@
         <v>ravi</v>
       </c>
       <c r="K101" t="str">
-        <v>9/21/2022</v>
+        <v>9/22/2022</v>
       </c>
       <c r="L101" t="b">
         <v>0</v>
@@ -5151,13 +5151,13 @@
     </row>
     <row r="102">
       <c r="A102">
-        <v>71354</v>
+        <v>71356</v>
       </c>
       <c r="B102" t="str">
-        <v>LAHP 0310 TFC</v>
+        <v>3DP3R12ME. TFC. 8OO</v>
       </c>
       <c r="C102" t="str">
-        <v>70151NG2</v>
+        <v>07B62015R</v>
       </c>
       <c r="D102" t="str">
         <v>208</v>
@@ -5166,10 +5166,10 @@
         <v>0</v>
       </c>
       <c r="F102" t="str">
-        <v>BAD</v>
+        <v>GOOD</v>
       </c>
       <c r="G102" t="str">
-        <v>82833</v>
+        <v>N/A</v>
       </c>
       <c r="H102" t="str">
         <v>NO</v>
@@ -5193,30 +5193,30 @@
         <v>N/A</v>
       </c>
       <c r="O102" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
     </row>
     <row r="103">
       <c r="A103">
-        <v>71355</v>
+        <v>71357</v>
       </c>
       <c r="B103" t="str">
-        <v>3DT3 1500 TFC</v>
+        <v>3DB3A075E TFC  800</v>
       </c>
       <c r="C103" t="str">
-        <v>69056NF2</v>
+        <v>ET. 04C49516S</v>
       </c>
       <c r="D103" t="str">
         <v>208</v>
       </c>
       <c r="E103" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F103" t="str">
-        <v>GOOD</v>
+        <v>BAD</v>
       </c>
       <c r="G103" t="str">
-        <v>82876</v>
+        <v>81686</v>
       </c>
       <c r="H103" t="str">
         <v>NO</v>
@@ -5240,12 +5240,106 @@
         <v>N/A</v>
       </c>
       <c r="O103" t="str">
-        <v>YES</v>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104">
+        <v>71358</v>
+      </c>
+      <c r="B104" t="str">
+        <v>3DB3. 1000 TFC</v>
+      </c>
+      <c r="C104" t="str">
+        <v>NA</v>
+      </c>
+      <c r="D104" t="str">
+        <v>208</v>
+      </c>
+      <c r="E104" t="str">
+        <v>0</v>
+      </c>
+      <c r="F104" t="str">
+        <v>?</v>
+      </c>
+      <c r="G104" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="H104" t="str">
+        <v>NO</v>
+      </c>
+      <c r="I104" t="str">
+        <v/>
+      </c>
+      <c r="J104" t="str">
+        <v>ravi</v>
+      </c>
+      <c r="K104" t="str">
+        <v>9/22/2022</v>
+      </c>
+      <c r="L104" t="b">
+        <v>0</v>
+      </c>
+      <c r="M104" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="N104" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="O104" t="str">
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105">
+        <v>71359</v>
+      </c>
+      <c r="B105" t="str">
+        <v>3DB30750 TFC</v>
+      </c>
+      <c r="C105" t="str">
+        <v>56520NG5</v>
+      </c>
+      <c r="D105" t="str">
+        <v>208</v>
+      </c>
+      <c r="E105" t="str">
+        <v>0</v>
+      </c>
+      <c r="F105" t="str">
+        <v>?</v>
+      </c>
+      <c r="G105" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="H105" t="str">
+        <v>NO</v>
+      </c>
+      <c r="I105" t="str">
+        <v/>
+      </c>
+      <c r="J105" t="str">
+        <v>ravi</v>
+      </c>
+      <c r="K105" t="str">
+        <v>9/22/2022</v>
+      </c>
+      <c r="L105" t="b">
+        <v>0</v>
+      </c>
+      <c r="M105" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="N105" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="O105" t="str">
+        <v>NO</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:O103"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:O105"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/public/backup/jobs.xlsx
+++ b/public/backup/jobs.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O105"/>
+  <dimension ref="A1:O106"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5337,9 +5337,56 @@
         <v>NO</v>
       </c>
     </row>
+    <row r="106">
+      <c r="A106">
+        <v>71360</v>
+      </c>
+      <c r="B106" t="str">
+        <v>CHHN060TK</v>
+      </c>
+      <c r="C106" t="str">
+        <v>UA765626</v>
+      </c>
+      <c r="D106" t="str">
+        <v>460</v>
+      </c>
+      <c r="E106" t="str">
+        <v>?</v>
+      </c>
+      <c r="F106" t="str">
+        <v>?</v>
+      </c>
+      <c r="G106" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="H106" t="str">
+        <v>NO</v>
+      </c>
+      <c r="I106" t="str">
+        <v/>
+      </c>
+      <c r="J106" t="str">
+        <v>romel</v>
+      </c>
+      <c r="K106" t="str">
+        <v>9/23/2022</v>
+      </c>
+      <c r="L106" t="b">
+        <v>0</v>
+      </c>
+      <c r="M106" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="N106" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="O106" t="str">
+        <v>NO</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:O105"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:O106"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/public/backup/jobs.xlsx
+++ b/public/backup/jobs.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O106"/>
+  <dimension ref="A1:O111"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5384,9 +5384,244 @@
         <v>NO</v>
       </c>
     </row>
+    <row r="107">
+      <c r="A107">
+        <v>71361</v>
+      </c>
+      <c r="B107" t="str">
+        <v>2DL 0750 TFC</v>
+      </c>
+      <c r="C107" t="str">
+        <v>53018CNK5</v>
+      </c>
+      <c r="D107" t="str">
+        <v>208</v>
+      </c>
+      <c r="E107" t="str">
+        <v>0</v>
+      </c>
+      <c r="F107" t="str">
+        <v>BAD</v>
+      </c>
+      <c r="G107" t="str">
+        <v>82660</v>
+      </c>
+      <c r="H107" t="str">
+        <v>NO</v>
+      </c>
+      <c r="I107" t="str">
+        <v/>
+      </c>
+      <c r="J107" t="str">
+        <v>ravi</v>
+      </c>
+      <c r="K107" t="str">
+        <v>9/26/2022</v>
+      </c>
+      <c r="L107" t="b">
+        <v>0</v>
+      </c>
+      <c r="M107" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="N107" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="O107" t="str">
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108">
+        <v>71362</v>
+      </c>
+      <c r="B108" t="str">
+        <v>2DL30750TFC 800</v>
+      </c>
+      <c r="C108" t="str">
+        <v>05U62858R</v>
+      </c>
+      <c r="D108" t="str">
+        <v>208</v>
+      </c>
+      <c r="E108" t="str">
+        <v>0</v>
+      </c>
+      <c r="F108" t="str">
+        <v>BAD</v>
+      </c>
+      <c r="G108" t="str">
+        <v>82532</v>
+      </c>
+      <c r="H108" t="str">
+        <v>NO</v>
+      </c>
+      <c r="I108" t="str">
+        <v/>
+      </c>
+      <c r="J108" t="str">
+        <v>ravi</v>
+      </c>
+      <c r="K108" t="str">
+        <v>9/26/2022</v>
+      </c>
+      <c r="L108" t="b">
+        <v>0</v>
+      </c>
+      <c r="M108" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="N108" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="O108" t="str">
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109">
+        <v>71363</v>
+      </c>
+      <c r="B109" t="str">
+        <v>06ET265 36A</v>
+      </c>
+      <c r="C109" t="str">
+        <v>69798NA2</v>
+      </c>
+      <c r="D109" t="str">
+        <v>MULTI</v>
+      </c>
+      <c r="E109" t="str">
+        <v>?</v>
+      </c>
+      <c r="F109" t="str">
+        <v>GOOD</v>
+      </c>
+      <c r="G109" t="str">
+        <v>82990</v>
+      </c>
+      <c r="H109" t="str">
+        <v>NO</v>
+      </c>
+      <c r="I109" t="str">
+        <v/>
+      </c>
+      <c r="J109" t="str">
+        <v>ravi</v>
+      </c>
+      <c r="K109" t="str">
+        <v>9/26/2022</v>
+      </c>
+      <c r="L109" t="b">
+        <v>0</v>
+      </c>
+      <c r="M109" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="N109" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="O109" t="str">
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110">
+        <v>71364</v>
+      </c>
+      <c r="B110" t="str">
+        <v>06ET 299 36A</v>
+      </c>
+      <c r="C110" t="str">
+        <v>69480NH1</v>
+      </c>
+      <c r="D110" t="str">
+        <v>MULTI</v>
+      </c>
+      <c r="E110" t="str">
+        <v>?</v>
+      </c>
+      <c r="F110" t="str">
+        <v>BAD</v>
+      </c>
+      <c r="G110" t="str">
+        <v>82986</v>
+      </c>
+      <c r="H110" t="str">
+        <v>NO</v>
+      </c>
+      <c r="I110" t="str">
+        <v/>
+      </c>
+      <c r="J110" t="str">
+        <v>ravi</v>
+      </c>
+      <c r="K110" t="str">
+        <v>9/26/2022</v>
+      </c>
+      <c r="L110" t="b">
+        <v>0</v>
+      </c>
+      <c r="M110" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="N110" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="O110" t="str">
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111">
+        <v>71365</v>
+      </c>
+      <c r="B111" t="str">
+        <v>06AY 750 34A</v>
+      </c>
+      <c r="C111" t="str">
+        <v>65873NF1</v>
+      </c>
+      <c r="D111" t="str">
+        <v>MULTI</v>
+      </c>
+      <c r="E111" t="str">
+        <v>?</v>
+      </c>
+      <c r="F111" t="str">
+        <v>BAD</v>
+      </c>
+      <c r="G111" t="str">
+        <v>82899</v>
+      </c>
+      <c r="H111" t="str">
+        <v>NO</v>
+      </c>
+      <c r="I111" t="str">
+        <v/>
+      </c>
+      <c r="J111" t="str">
+        <v>ravi</v>
+      </c>
+      <c r="K111" t="str">
+        <v>9/26/2022</v>
+      </c>
+      <c r="L111" t="b">
+        <v>0</v>
+      </c>
+      <c r="M111" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="N111" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="O111" t="str">
+        <v>NO</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:O106"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:O111"/>
   </ignoredErrors>
 </worksheet>
 </file>